--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -44,7 +44,58 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:24 AM</t>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>Monday, 22 September, 2025 9:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +305,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +317,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +725,169 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>588</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>29</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>30</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +901,25 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -86,6 +86,30 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -95,7 +119,7 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:27 AM</t>
+    <t>Monday, 22 September, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -835,7 +859,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -845,49 +869,115 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>588</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>30</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>684</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -916,10 +1006,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:55 AM</t>
+    <t>Monday, 22 September, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:02 AM</t>
+    <t>Monday, 22 September, 2025 10:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -86,12 +86,24 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -119,7 +131,19 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:08 AM</t>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>Monday, 22 September, 2025 10:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -876,7 +900,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -885,14 +909,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -925,7 +949,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -935,49 +959,115 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>684</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>19</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>740</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1106,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -44,6 +44,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -59,18 +74,12 @@
     <t>300.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -143,7 +152,7 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:09 AM</t>
+    <t>Monday, 22 September, 2025 10:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -801,7 +810,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -810,31 +819,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -843,20 +852,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -867,7 +876,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -883,24 +892,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -909,31 +918,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -949,24 +958,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -975,20 +984,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -999,7 +1008,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1015,59 +1024,92 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>740</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>772</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>49</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1158,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -152,7 +152,19 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:29 AM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Monday, 22 September, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,38 +1090,71 @@
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>772</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>48</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>18</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>49</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>817</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1163,10 +1208,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:37 AM</t>
+    <t>Monday, 22 September, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -164,7 +173,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:46 AM</t>
+    <t>Monday, 22 September, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1102,59 +1111,92 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>817</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>18</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>844</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1255,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -173,7 +182,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:52 AM</t>
+    <t>Monday, 22 September, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1012,7 +1021,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1022,11 +1031,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1038,14 +1047,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1078,7 +1087,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,11 +1097,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1104,14 +1113,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1144,59 +1153,92 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>844</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>954</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1302,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -119,6 +119,21 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -131,9 +146,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -170,6 +182,42 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -182,7 +230,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 11:01 AM</t>
+    <t>Monday, 22 September, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1069,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1031,14 +1079,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1047,14 +1095,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,11 +1112,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1080,14 +1128,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1097,11 +1145,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1113,14 +1161,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1153,7 +1201,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1163,11 +1211,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1179,20 +1227,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1207,38 +1255,203 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>954</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>57</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>18</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>58</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>18</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>18</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>18</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1380</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1520,35 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 11:26 AM</t>
+    <t>Monday, 22 September, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -173,6 +185,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -230,7 +251,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 11:27 AM</t>
+    <t>Monday, 22 September, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1255,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1244,11 +1265,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1260,31 +1281,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,28 +1314,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1347,10 +1368,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,7 +1380,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1376,11 +1397,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1392,14 +1413,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1409,49 +1430,115 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1380</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>73</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>18</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>74</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>77</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>18</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1507</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>80</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>81</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>82</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1632,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>THYROXINE 50MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -251,7 +263,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 11:55 AM</t>
+    <t>Monday, 22 September, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,24 +1366,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,7 +1392,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1397,14 +1409,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1413,14 +1425,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1434,10 +1446,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,14 +1458,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1463,14 +1475,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1479,14 +1491,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1507,38 +1519,71 @@
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1507</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>80</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>81</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>18</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>82</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1553</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1642,10 +1687,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 12:06 PM</t>
+    <t>Monday, 22 September, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>لزق بثور</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -263,7 +272,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 12:07 PM</t>
+    <t>Monday, 22 September, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1540,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1541,49 +1550,82 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>83</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1553</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>18</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1638</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>87</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>88</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>89</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1734,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -272,7 +284,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 12:08 PM</t>
+    <t>Monday, 22 September, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1408,24 +1420,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1434,7 +1446,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1451,14 +1463,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1467,14 +1479,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1488,10 +1500,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,14 +1512,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1517,14 +1529,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1533,14 +1545,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1550,11 +1562,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1566,14 +1578,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1594,38 +1606,71 @@
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1638</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>87</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>88</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>18</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>89</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1688</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>91</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>92</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>93</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1739,10 +1784,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -173,6 +182,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -218,9 +239,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -236,6 +254,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -284,7 +311,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 12:34 PM</t>
+    <t>Monday, 22 September, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,14 +1308,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1298,11 +1325,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1338,7 +1365,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1354,7 +1381,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,11 +1391,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1420,7 +1447,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1457,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1446,20 +1473,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1470,7 +1497,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1486,13 +1513,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1503,7 +1530,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1519,7 +1546,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,14 +1556,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1585,7 +1612,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1632,45 +1659,144 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>90</v>
       </c>
-      <c t="s" r="Q28" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1688</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>18</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>91</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>93</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>18</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>94</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>96</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>97</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>18</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>98</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1719.8199999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>100</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>102</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1789,10 +1915,25 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -164,18 +164,18 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>12.0000</t>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -236,6 +236,18 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8228:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -251,15 +263,15 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -311,7 +323,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 1:26 PM</t>
+    <t>Monday, 22 September, 2025 1:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1299,7 +1311,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1308,14 +1320,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1513,7 +1525,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1535,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,31 +1551,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,7 +1584,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1589,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,7 +1617,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1622,11 +1634,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1638,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1659,10 +1671,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,14 +1700,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1704,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1721,11 +1733,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1765,38 +1777,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1719.8199999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>100</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>101</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>18</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>102</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1739.8199999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1930,10 +1975,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -173,6 +182,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -323,7 +341,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 1:41 PM</t>
+    <t>Monday, 22 September, 2025 2:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1261,7 +1279,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1294,7 +1312,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1304,14 +1322,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1320,14 +1338,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1337,14 +1355,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1360,7 +1378,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,14 +1388,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1386,14 +1404,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1403,11 +1421,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1419,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,14 +1454,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1452,14 +1470,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1492,7 +1510,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1518,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,14 +1553,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,14 +1586,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1584,20 +1602,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1608,7 +1626,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,31 +1635,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,7 +1692,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1756,7 +1774,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1789,7 +1807,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1799,49 +1817,115 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>103</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1739.8199999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>18</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>105</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>107</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>18</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1841.8199999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2064,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 2:04 PM</t>
+    <t>Monday, 22 September, 2025 2:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 2:05 PM</t>
+    <t>Monday, 22 September, 2025 3:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -152,6 +161,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>INVESTA OIL REPLACEMENT 120 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -275,6 +293,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>حمام كريم فاتيكا الصغير</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -311,6 +338,15 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -323,22 +359,10 @@
     <t>لزق بثور</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>20:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
   </si>
   <si>
     <t>Monday, 22 September, 2025 3:47 PM</t>
@@ -1213,7 +1237,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1246,7 +1270,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1279,7 +1303,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1345,7 +1369,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1355,14 +1379,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1371,7 +1395,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1388,11 +1412,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1404,14 +1428,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1421,14 +1445,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1444,7 +1468,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,14 +1478,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,11 +1511,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,14 +1544,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1536,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1576,7 +1600,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1586,11 +1610,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1602,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,20 +1692,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1692,7 +1716,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,31 +1725,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1774,7 +1798,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1784,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,7 +1824,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1817,7 +1841,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1840,7 +1864,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1887,45 +1911,177 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>109</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1841.8199999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>18</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>110</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>112</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>18</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>113</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>18</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>110</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>117</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>18</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>95</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>2131.8200000000002</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>118</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>119</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>120</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2230,30 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
     <t>حمام كريم فاتيكا الصغير</t>
   </si>
   <si>
@@ -302,6 +314,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>زولا رقبه</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -365,7 +380,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 3:47 PM</t>
+    <t>Monday, 22 September, 2025 3:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,7 +1780,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,7 +1806,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1841,11 +1856,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1857,7 +1872,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1874,14 +1889,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1897,7 +1912,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,7 +1938,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1940,11 +1955,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1977,10 +1992,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2039,49 +2054,115 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>2131.8200000000002</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>118</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>119</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>120</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>18</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>115</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>122</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>18</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>99</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2193.3200000000002</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>123</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>125</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2250,10 +2331,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -314,9 +314,6 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>زولا رقبه</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -380,7 +377,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 3:54 PM</t>
+    <t>Monday, 22 September, 2025 3:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1856,14 +1853,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,7 +1869,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1889,14 +1886,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,7 +1902,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1922,11 +1919,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1938,14 +1935,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,14 +1952,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,14 +1968,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,14 +1985,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,7 +2001,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2021,11 +2018,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2037,14 +2034,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2054,11 +2051,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2077,7 +2074,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2087,82 +2084,49 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="A40" s="7">
-        <v>34</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c t="s" r="C40" s="8">
-        <v>121</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c t="s" r="H40" s="9">
+      <c r="P40" s="13">
+        <v>2143.3200000000002</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
         <v>122</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c t="s" r="L40" s="10">
-        <v>18</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c t="s" r="N40" s="8">
-        <v>99</v>
-      </c>
-      <c r="O40" s="8"/>
-      <c t="s" r="P40" s="11">
-        <v>100</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2193.3200000000002</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
         <v>123</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
         <v>124</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>125</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2336,15 +2300,10 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -377,7 +377,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 3:57 PM</t>
+    <t>Monday, 22 September, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -95,6 +95,21 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -197,9 +212,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -371,13 +383,22 @@
     <t>لزق بثور</t>
   </si>
   <si>
+    <t>مجموعه لونا 3 قطع</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 5:24 PM</t>
+    <t>Monday, 22 September, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1183,7 +1204,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1193,14 +1214,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1209,14 +1230,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1226,14 +1247,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1249,7 +1270,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1259,14 +1280,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1275,14 +1296,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,11 +1313,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1308,14 +1329,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,11 +1346,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1341,14 +1362,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,11 +1379,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1374,14 +1395,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,11 +1412,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1407,14 +1428,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,11 +1445,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1440,14 +1461,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,14 +1478,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1473,14 +1494,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1490,14 +1511,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,14 +1527,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1523,11 +1544,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1539,14 +1560,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1563,7 +1584,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1596,7 +1617,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1612,7 +1633,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,11 +1643,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1638,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,11 +1676,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1671,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1728,7 +1749,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1744,7 +1765,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1775,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,20 +1791,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1794,7 +1815,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1810,7 +1831,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,14 +1841,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,7 +1857,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1853,14 +1874,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1886,14 +1907,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,7 +1923,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1919,11 +1940,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1935,14 +1956,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1956,10 +1977,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,14 +1989,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,14 +2006,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,7 +2022,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2018,11 +2039,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,11 +2072,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2067,14 +2088,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2084,49 +2105,115 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2143.3200000000002</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>122</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>123</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>124</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>78</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>18</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>125</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>128</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>18</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>103</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2309.1599999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>129</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>130</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>131</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2300,10 +2387,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -62,33 +62,33 @@
     <t>AM GINKO TAB</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -221,6 +221,12 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -242,6 +248,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -398,7 +413,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 5:41 PM</t>
+    <t>Monday, 22 September, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1072,21 +1087,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1098,14 +1113,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1115,11 +1130,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1131,14 +1146,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1402,7 +1417,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1468,7 +1483,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1534,7 +1549,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1567,21 +1582,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1593,14 +1608,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1610,14 +1625,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1626,14 +1641,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1643,14 +1658,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,11 +1724,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1824,31 +1839,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1857,31 +1872,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1890,31 +1905,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,28 +1938,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1956,31 +1971,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1996,24 +2011,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2022,28 +2037,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2055,20 +2070,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2076,10 +2091,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2088,28 +2103,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2121,28 +2136,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2154,66 +2169,132 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2309.1599999999999</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>129</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>83</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>17</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>130</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>132</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>133</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>17</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>108</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2405.1599999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>134</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>135</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>136</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2397,10 +2478,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 5:55 PM</t>
+    <t>Monday, 22 September, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
@@ -299,6 +308,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -320,6 +338,24 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>بادي لوشن ايفا</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -341,6 +377,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>رول اون نيفيا</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -380,12 +419,6 @@
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -407,13 +440,16 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 5:58 PM</t>
+    <t>Monday, 22 September, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1681,7 +1717,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1724,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1740,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1780,7 +1816,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1813,7 +1849,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1823,11 +1859,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1839,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1872,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1905,31 +1941,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1938,31 +1974,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1971,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1988,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2004,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2021,11 +2057,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2037,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2061,7 +2097,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2077,7 +2113,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2120,11 +2156,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2136,7 +2172,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2169,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2186,11 +2222,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2209,7 +2245,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2252,49 +2288,247 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2405.1599999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>134</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>135</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>25</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>17</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>113</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>136</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>25</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>17</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>17</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>113</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>140</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>86</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>17</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>141</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>143</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>34</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>17</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>110</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>145</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>17</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>120</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2989.1599999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>146</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>147</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>148</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2488,10 +2722,40 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:07 PM</t>
+    <t>Monday, 22 September, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>MALCON MASSAGE CREAM</t>
   </si>
   <si>
@@ -254,9 +266,6 @@
     <t>68.00</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
@@ -293,7 +302,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t>THYROXINE 50MCG 100 TAB.</t>
@@ -449,7 +458,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:08 PM</t>
+    <t>Monday, 22 September, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1288,7 +1297,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1305,7 +1314,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1321,7 +1330,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1331,14 +1340,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1387,7 +1396,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1420,7 +1429,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1453,7 +1462,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1486,7 +1495,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1519,7 +1528,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1552,7 +1561,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1571,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1585,7 +1594,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,14 +1604,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1624,15 +1633,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1644,14 +1653,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1661,11 +1670,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1677,31 +1686,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,11 +1736,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,11 +1769,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>37</v>
@@ -1776,14 +1785,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,11 +1802,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1809,14 +1818,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,11 +1868,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,11 +1901,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,31 +2016,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,31 +2049,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,14 +2099,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,7 +2181,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,7 +2214,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2222,11 +2231,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2238,7 +2247,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,7 +2313,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2358,10 +2367,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2486,49 +2495,115 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2989.1599999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>146</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>34</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>17</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>113</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>147</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>148</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>17</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>123</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>3116.1599999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>149</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>150</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>151</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2752,10 +2827,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
     <t>THYROXINE 50MCG 100 TAB.</t>
   </si>
   <si>
@@ -428,6 +437,15 @@
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -458,7 +476,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:10 PM</t>
+    <t>Monday, 22 September, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,7 +1975,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,11 +1985,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2007,7 +2025,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2023,7 +2041,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,11 +2051,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>45</v>
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2073,7 +2091,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2089,13 +2107,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2106,7 +2124,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2155,7 +2173,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2205,7 +2223,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2231,11 +2249,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2247,7 +2265,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2264,14 +2282,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,7 +2298,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,7 +2331,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2330,7 +2348,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2353,7 +2371,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2386,7 +2404,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,7 +2430,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2429,11 +2447,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2452,7 +2470,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,11 +2480,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2495,11 +2513,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2511,14 +2529,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2528,11 +2546,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2544,14 +2562,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2561,49 +2579,115 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>3116.1599999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>149</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>150</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>151</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>152</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>34</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>17</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>116</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>153</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>154</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>17</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>126</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>3380.1599999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>155</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>156</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>157</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2837,10 +2921,20 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>INVESTA OIL REPLACEMENT 120 GM</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -476,7 +494,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:11 PM</t>
+    <t>Monday, 22 September, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,7 +1531,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1546,7 +1564,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1579,7 +1597,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1612,7 +1630,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1622,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1678,7 +1696,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1688,11 +1706,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1704,28 +1722,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1737,24 +1755,24 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1777,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1824,10 +1842,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1890,7 +1908,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1959,7 +1977,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1975,7 +1993,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2008,7 +2026,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2133,20 +2151,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2157,7 +2175,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2173,13 +2191,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2190,7 +2208,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2206,7 +2224,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2216,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,11 +2267,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2298,7 +2316,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2331,7 +2349,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2388,7 +2406,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2496,7 +2514,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2513,11 +2531,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2536,7 +2554,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2579,11 +2597,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2612,11 +2630,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2645,49 +2663,115 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>3380.1599999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>155</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>156</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>157</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>34</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>17</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>122</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>159</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>160</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>17</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>132</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>3701.1599999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>161</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>162</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>163</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2931,10 +3015,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -185,6 +185,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -260,9 +272,6 @@
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -314,6 +323,27 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -365,6 +395,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -410,9 +449,6 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>رول اون نيفيا</t>
   </si>
   <si>
@@ -494,7 +530,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:25 PM</t>
+    <t>Monday, 22 September, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1567,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,14 +1577,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1557,14 +1593,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,11 +1610,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1590,14 +1626,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1607,11 +1643,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1623,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,11 +1676,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1656,14 +1692,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,14 +1709,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,14 +1725,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,14 +1742,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1722,14 +1758,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,11 +1775,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1755,28 +1791,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1788,28 +1824,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1821,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1845,7 +1881,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1861,7 +1897,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1878,7 +1914,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,7 +1944,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1920,14 +1956,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1973,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1970,14 +2006,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2026,7 +2062,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2043,7 +2079,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2059,7 +2095,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2076,7 +2112,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2109,7 +2145,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2125,7 +2161,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2158,7 +2194,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2204,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,14 +2220,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2208,7 +2244,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2224,13 +2260,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2241,7 +2277,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2257,24 +2293,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,20 +2319,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2323,13 +2359,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2340,7 +2376,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2356,7 +2392,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,11 +2402,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2382,14 +2418,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2399,14 +2435,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,14 +2451,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,14 +2468,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,7 +2484,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2465,11 +2501,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2481,14 +2517,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2498,14 +2534,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2531,14 +2567,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,14 +2583,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2600,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2580,7 +2616,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2597,11 +2633,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2613,14 +2649,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2630,14 +2666,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2646,14 +2682,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2663,11 +2699,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2679,14 +2715,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2696,11 +2732,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2712,14 +2748,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2729,49 +2765,181 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>3701.1599999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>161</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>162</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>163</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>166</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>17</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>138</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>98</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>17</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>168</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>170</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>34</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>17</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>135</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>171</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>172</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>17</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>145</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3864.75</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>173</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>174</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>175</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3025,10 +3193,30 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -362,6 +362,12 @@
     <t>229.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>THYROXINE 50MCG 100 TAB.</t>
   </si>
   <si>
@@ -383,6 +389,18 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -491,6 +509,12 @@
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
+    <t>شامبو نونو100ملل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>فرشه للشعر</t>
   </si>
   <si>
@@ -530,7 +554,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:29 PM</t>
+    <t>Monday, 22 September, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2227,7 +2251,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2237,11 +2261,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2253,14 +2277,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,14 +2294,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2286,14 +2310,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2303,11 +2327,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>45</v>
@@ -2319,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,14 +2360,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2376,7 +2400,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2392,13 +2416,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2409,7 +2433,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2425,13 +2449,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2442,7 +2466,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2458,7 +2482,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2501,11 +2525,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2524,7 +2548,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,7 +2574,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,7 +2607,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2600,11 +2624,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2640,7 +2664,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2666,14 +2690,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2699,11 +2723,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2715,14 +2739,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2732,14 +2756,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,7 +2772,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2765,11 +2789,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2798,11 +2822,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2831,11 +2855,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2864,11 +2888,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2880,14 +2904,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2897,49 +2921,148 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>98</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>17</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>176</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>34</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>17</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>141</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>179</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>180</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>17</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>151</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>106</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3864.75</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>173</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>174</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>175</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3942.75</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>181</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>182</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>183</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3213,10 +3336,25 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>255.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -353,6 +371,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
   </si>
   <si>
@@ -554,7 +581,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:35 PM</t>
+    <t>Monday, 22 September, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1832,11 +1859,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1848,28 +1875,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1881,24 +1908,24 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1921,7 +1948,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1938,7 +1965,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1954,7 +1981,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1971,7 +1998,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2001,7 +2028,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2030,14 +2057,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2067,7 +2094,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2079,14 +2106,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2112,14 +2139,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2136,7 +2163,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2152,7 +2179,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2162,14 +2189,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2178,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2195,14 +2222,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2235,7 +2262,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2251,7 +2278,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2261,14 +2288,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2317,7 +2344,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2334,7 +2361,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2350,7 +2377,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,11 +2387,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2426,14 +2453,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2475,20 +2502,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2499,7 +2526,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2515,13 +2542,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2532,7 +2559,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2548,21 +2575,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>37</v>
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2614,7 +2641,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2624,11 +2651,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2640,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2657,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2673,7 +2700,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2690,11 +2717,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2706,7 +2733,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2723,11 +2750,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2746,7 +2773,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2756,14 +2783,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,7 +2799,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2789,11 +2816,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2822,11 +2849,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2855,14 +2882,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2871,7 +2898,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2888,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2904,7 +2931,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2921,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2937,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2954,11 +2981,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2987,11 +3014,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3003,14 +3030,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3020,49 +3047,148 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3942.75</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>181</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>182</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>183</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>184</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>104</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>17</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>185</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>187</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>34</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>17</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>150</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>188</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>189</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>17</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>160</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>4300.6499999999996</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>190</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>191</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>192</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3351,10 +3477,25 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -407,6 +407,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -581,7 +590,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:37 PM</t>
+    <t>Monday, 22 September, 2025 6:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2443,7 +2452,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2460,7 +2469,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2559,7 +2568,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2575,7 +2584,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2608,13 +2617,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2625,7 +2634,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2674,7 +2683,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2721,10 +2730,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,7 +2808,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,7 +2841,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2849,7 +2858,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2872,7 +2881,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2905,7 +2914,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2948,11 +2957,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3004,7 +3013,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3037,7 +3046,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3047,11 +3056,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3103,7 +3112,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3146,49 +3155,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>191</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>192</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>17</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>163</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>112</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>4300.6499999999996</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>190</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>191</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>192</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>4362.6499999999996</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>193</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>194</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>195</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3492,10 +3534,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -236,9 +248,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -431,12 +440,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -590,7 +593,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:42 PM</t>
+    <t>Monday, 22 September, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1564,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1571,11 +1574,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1587,14 +1590,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1604,11 +1607,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1620,14 +1623,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1644,7 +1647,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1660,7 +1663,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1670,14 +1673,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1686,14 +1689,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1703,11 +1706,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1719,14 +1722,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1736,11 +1739,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1752,14 +1755,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1769,11 +1772,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1785,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1802,14 +1805,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1818,14 +1821,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,14 +1838,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1858,7 +1861,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,11 +1904,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1917,28 +1920,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1950,24 +1953,24 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1990,7 +1993,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2007,7 +2010,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2023,7 +2026,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2040,7 +2043,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2056,7 +2059,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2089,7 +2092,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2115,14 +2118,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2132,14 +2135,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2165,14 +2168,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,14 +2184,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2221,7 +2224,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2238,7 +2241,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2254,7 +2257,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,11 +2267,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>37</v>
@@ -2280,14 +2283,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2304,7 +2307,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2320,7 +2323,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2337,7 +2340,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2353,7 +2356,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2386,7 +2389,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2396,11 +2399,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2412,14 +2415,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2429,11 +2432,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2485,7 +2488,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2502,7 +2505,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2518,7 +2521,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2528,14 +2531,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2544,14 +2547,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,14 +2564,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2577,14 +2580,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2597,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2610,14 +2613,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>37</v>
@@ -2643,31 +2646,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,7 +2679,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2709,14 +2712,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,14 +2729,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,14 +2762,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2775,7 +2778,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2841,7 +2844,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2874,7 +2877,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,14 +2943,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2957,14 +2960,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2980,7 +2983,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3023,11 +3026,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3112,7 +3115,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3138,14 +3141,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3155,11 +3158,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3178,7 +3181,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3188,49 +3191,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>4362.6499999999996</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>193</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>17</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>164</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>4388.6499999999996</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
         <v>194</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
         <v>195</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>196</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3539,10 +3575,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -59,6 +59,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -209,6 +227,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -593,7 +620,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:54 PM</t>
+    <t>Monday, 22 September, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,15 +1300,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1293,28 +1320,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1326,14 +1353,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1343,11 +1370,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1359,14 +1386,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1376,14 +1403,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1392,14 +1419,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1409,14 +1436,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1425,7 +1452,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1442,14 +1469,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1465,7 +1492,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1482,7 +1509,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1498,7 +1525,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1508,14 +1535,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1524,14 +1551,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1541,14 +1568,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1564,7 +1591,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1574,11 +1601,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1590,14 +1617,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1630,7 +1657,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1663,7 +1690,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1673,14 +1700,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1689,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1706,11 +1733,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1722,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1746,7 +1773,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1762,7 +1789,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1795,7 +1822,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1828,7 +1855,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1838,14 +1865,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1871,11 +1898,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1887,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1904,11 +1931,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1953,28 +1980,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,11 +2030,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2019,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2036,14 +2063,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2052,24 +2079,24 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2092,7 +2119,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2125,7 +2152,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2139,10 +2166,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2151,14 +2178,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2224,7 +2251,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2238,7 +2265,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2267,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2283,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,14 +2327,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2366,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2382,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2406,7 +2433,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2422,7 +2449,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2432,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2448,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2488,7 +2515,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2521,7 +2548,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2547,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2564,11 +2591,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2604,7 +2631,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2620,7 +2647,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2637,7 +2664,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2653,7 +2680,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2663,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2679,20 +2706,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2703,7 +2730,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2719,13 +2746,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2736,7 +2763,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2752,24 +2779,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2778,28 +2805,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2818,21 +2845,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2844,31 +2871,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>169</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2877,28 +2904,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2910,28 +2937,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2950,24 +2977,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2976,28 +3003,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3009,28 +3036,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3042,31 +3069,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3075,28 +3102,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3108,7 +3135,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3121,15 +3148,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3141,28 +3168,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3174,28 +3201,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3207,66 +3234,165 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>4388.6499999999996</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>194</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>195</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>196</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>116</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>20</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>198</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>37</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>20</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>163</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>202</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>20</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>173</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>4534.6499999999996</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>203</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>204</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>205</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3580,10 +3706,25 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:55 PM</t>
+    <t>Monday, 22 September, 2025 6:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -119,6 +119,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -131,7 +146,13 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
   </si>
   <si>
     <t>DEXAWEST 60 MG 14 CAPS</t>
@@ -218,9 +239,6 @@
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -296,6 +314,15 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -314,6 +341,21 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -386,6 +428,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -431,6 +479,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>THYROXINE 50MCG 100 TAB.</t>
   </si>
   <si>
@@ -614,13 +671,16 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
+    <t>معجون اسنان فلورو بالكولا</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 6:56 PM</t>
+    <t>Monday, 22 September, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,7 +1552,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,11 +1562,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>40</v>
@@ -1518,14 +1578,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1535,11 +1595,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1551,14 +1611,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1575,7 +1635,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1584,14 +1644,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,11 +1661,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1617,14 +1677,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1694,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1657,7 +1717,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1690,7 +1750,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,11 +1760,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1716,7 +1776,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1733,11 +1793,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1749,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1773,7 +1833,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1789,7 +1849,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1822,7 +1882,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1839,7 +1899,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1855,7 +1915,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1888,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1954,7 +2014,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,7 +2040,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1997,11 +2057,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2013,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2053,7 +2113,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,11 +2123,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2079,28 +2139,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2112,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,11 +2189,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2145,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,7 +2238,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2191,11 +2251,11 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2218,7 +2278,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2251,7 +2311,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2265,7 +2325,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2277,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2317,7 +2377,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2376,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2453,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2486,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2508,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,11 +2585,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2541,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,11 +2750,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2706,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2849,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,28 +2865,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2838,28 +2898,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2871,31 +2931,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,28 +2964,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2937,31 +2997,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2977,13 +3037,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2994,7 +3054,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>178</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,31 +3063,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3043,7 +3103,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3076,7 +3136,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3109,7 +3169,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,11 +3212,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3168,14 +3228,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,11 +3245,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3201,7 +3261,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3218,14 +3278,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,14 +3294,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,11 +3311,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3267,14 +3327,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3284,11 +3344,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3300,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3317,14 +3377,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3333,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3350,49 +3410,313 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>4534.6499999999996</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>203</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>204</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>205</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>207</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>20</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>208</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>209</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>55</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>20</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>210</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>28</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>20</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>213</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>215</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>20</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>185</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>216</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>130</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>20</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>217</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>42</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>20</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>182</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>220</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>130</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>20</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>60</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>221</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>222</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>20</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>192</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>5154.1499999999996</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>223</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>224</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>225</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3721,10 +4045,50 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -80,6 +80,21 @@
     <t>300.0000</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>216.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>EPICEPHIN 1GM I.V. VIAL</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -293,342 +302,366 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>THYROXINE 50MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8223:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن ايفا</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا الصغير</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>رول اون نيفيا</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OSTEO ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>THYROXINE 50MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8228:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن ايفا</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>1:15</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>11.5000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا الصغير</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>رول اون نيفيا</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
@@ -680,7 +713,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 7:46 PM</t>
+    <t>Monday, 22 September, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1437,7 +1470,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1446,14 +1479,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1463,11 +1496,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1479,14 +1512,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1503,7 +1536,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1512,14 +1545,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1529,14 +1562,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1545,14 +1578,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1562,14 +1595,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1585,7 +1618,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1595,14 +1628,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1611,14 +1644,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1628,14 +1661,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1644,14 +1677,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1661,14 +1694,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1677,14 +1710,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1701,7 +1734,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1710,14 +1743,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1727,14 +1760,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1750,7 +1783,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1760,11 +1793,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1776,14 +1809,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1816,7 +1849,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1849,7 +1882,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1882,7 +1915,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1899,7 +1932,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1915,7 +1948,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1932,7 +1965,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1948,7 +1981,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1981,7 +2014,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2014,7 +2047,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2047,7 +2080,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2080,7 +2113,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2090,14 +2123,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2106,14 +2139,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,14 +2156,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2146,7 +2179,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2222,11 +2255,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2238,28 +2271,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2271,24 +2304,24 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2311,7 +2344,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2344,7 +2377,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2358,7 +2391,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2387,14 +2420,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2410,7 +2443,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2427,7 +2460,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2443,7 +2476,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2476,7 +2509,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2490,7 +2523,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2502,14 +2535,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2519,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2552,14 +2585,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2568,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2608,7 +2641,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2625,7 +2658,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2641,7 +2674,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2655,10 +2688,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2688,10 +2721,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2724,7 +2757,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2740,7 +2773,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2757,7 +2790,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2773,7 +2806,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2806,7 +2839,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,11 +2849,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2832,14 +2865,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,14 +2882,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2882,14 +2915,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2931,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2948,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,14 +2964,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2955,7 +2988,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2971,7 +3004,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,11 +3014,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2997,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3021,7 +3054,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3037,7 +3070,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3080,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3087,7 +3120,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>40</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,31 +3129,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,28 +3162,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3162,20 +3195,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3186,7 +3219,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3202,7 +3235,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3216,7 +3249,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3228,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,11 +3278,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3261,14 +3294,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,14 +3311,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>197</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,14 +3327,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,11 +3344,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3327,14 +3360,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,11 +3377,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3360,14 +3393,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3381,10 +3414,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>55</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,14 +3426,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,11 +3443,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3426,14 +3459,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3443,11 +3476,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3459,14 +3492,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,14 +3509,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3492,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,11 +3542,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3525,7 +3558,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3542,11 +3575,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3558,14 +3591,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3575,11 +3608,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3591,14 +3624,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,11 +3641,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3624,14 +3657,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3641,11 +3674,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3657,14 +3690,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3674,49 +3707,148 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>5154.1499999999996</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>223</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>224</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>225</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>46</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>20</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>192</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>133</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>20</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>63</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>233</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>20</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>202</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>5581.8900000000003</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>234</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>235</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>236</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4085,10 +4217,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -464,6 +464,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -713,7 +722,7 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 8:07 PM</t>
+    <t>Monday, 22 September, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2839,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2872,7 +2881,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,11 +2891,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2938,7 +2947,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2971,7 +2980,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3037,7 +3046,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3054,7 +3063,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3070,7 +3079,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3186,7 +3195,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3202,7 +3211,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3219,7 +3228,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3235,13 +3244,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3252,7 +3261,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3301,7 +3310,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,14 +3320,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3348,10 +3357,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3377,11 +3386,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3426,7 +3435,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3459,7 +3468,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3476,7 +3485,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3499,7 +3508,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3631,7 +3640,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3664,7 +3673,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3730,7 +3739,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3806,49 +3815,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>236</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>20</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>205</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>141</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>5581.8900000000003</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>234</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>235</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>236</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>5623.8900000000003</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>237</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>238</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>239</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4232,10 +4274,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -116,6 +116,30 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -143,9 +167,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -158,6 +179,30 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -209,9 +254,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -428,6 +470,12 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
   </si>
   <si>
@@ -467,12 +515,21 @@
     <t>PRIVACOND EYE DROPS 15 ML</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>42.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -506,6 +563,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -554,18 +620,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8223:0</t>
+    <t>8221:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -611,6 +671,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -647,7 +713,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -662,9 +728,6 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -680,27 +743,36 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>فرشه للشعر</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
     <t>لزق بثور</t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>مجموعه لونا 3 قطع</t>
   </si>
   <si>
@@ -722,7 +794,10 @@
     <t>20:0</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 8:26 PM</t>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>Monday, 22 September, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1669,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1604,14 +1679,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1620,14 +1695,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1637,14 +1712,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1653,14 +1728,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1677,7 +1752,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1693,7 +1768,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1703,14 +1778,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1719,14 +1794,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1736,11 +1811,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1752,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1769,14 +1844,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1785,14 +1860,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1802,11 +1877,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1818,14 +1893,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1835,14 +1910,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1851,14 +1926,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1868,11 +1943,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1884,7 +1959,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1901,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1917,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1934,11 +2009,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1950,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1967,14 +2042,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1983,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,11 +2075,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2016,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,11 +2108,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2049,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,11 +2141,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2082,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2115,14 +2190,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,11 +2207,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2148,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2181,7 +2256,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2198,11 +2273,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2214,7 +2289,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2231,11 +2306,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2247,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,11 +2339,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2280,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2297,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,7 +2388,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2326,15 +2401,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2346,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,11 +2438,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2379,7 +2454,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2396,11 +2471,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2412,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,11 +2504,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2445,31 +2520,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2478,14 +2553,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,11 +2570,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2511,7 +2586,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2528,11 +2603,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2544,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2561,11 +2636,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2577,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,14 +2669,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2610,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,11 +2702,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2643,7 +2718,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2660,11 +2735,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2676,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,14 +2768,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2709,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2775,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,14 +2867,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2808,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2891,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2914,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2940,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2973,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3006,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3039,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,11 +3131,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3072,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3105,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3138,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3204,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3237,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3261,7 +3336,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3277,13 +3352,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3310,13 +3385,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3327,7 +3402,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3349,18 +3424,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3369,31 +3444,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3402,31 +3477,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3435,31 +3510,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3475,24 +3550,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3501,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,11 +3593,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3534,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3558,7 +3633,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3574,7 +3649,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3584,11 +3659,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3600,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3617,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3650,11 +3725,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3666,7 +3741,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3683,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3706,7 +3781,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3732,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3749,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3765,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3782,11 +3857,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3798,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3815,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3831,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3848,49 +3923,412 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>5623.8900000000003</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>237</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>238</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>239</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>242</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>20</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>243</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>245</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>20</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>185</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>27</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>20</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>185</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>24</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>20</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>154</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>250</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>20</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>218</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>24</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>20</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>252</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>254</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>147</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>20</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>255</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>257</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>53</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>20</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>215</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>258</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>147</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>20</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>78</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>260</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>20</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>227</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>261</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>245</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>20</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>243</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>6114.79</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>263</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>264</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4279,10 +4717,65 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 8:31 PM</t>
+    <t>Monday, 22 September, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -182,552 +182,573 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>INVESTA OIL REPLACEMENT 120 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>THYROXINE 50MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8221:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن ايفا</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:15</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا الصغير</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>رول اون نيفيا</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>INVESTA OIL REPLACEMENT 120 GM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OSTEO ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>THYROXINE 50MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8221:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن ايفا</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>1:15</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>11.5000</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا الصغير</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>رول اون نيفيا</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -764,15 +785,15 @@
     <t>لزق بثور</t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>مجموعه لونا 3 قطع</t>
   </si>
   <si>
@@ -797,7 +818,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 8:32 PM</t>
+    <t>Monday, 22 September, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1818,7 +1839,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2098,7 +2119,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2115,7 +2136,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2244,7 +2265,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2256,7 +2277,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2273,11 +2294,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2289,7 +2310,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2306,11 +2327,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2322,7 +2343,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2339,11 +2360,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2355,7 +2376,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2376,7 +2397,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>44</v>
@@ -2388,7 +2409,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2405,11 +2426,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2421,7 +2442,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2438,11 +2459,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2454,7 +2475,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2471,11 +2492,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2487,7 +2508,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2520,7 +2541,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2541,7 +2562,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2553,7 +2574,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2570,11 +2591,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2586,7 +2607,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2603,11 +2624,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2619,7 +2640,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2636,7 +2657,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2652,7 +2673,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2669,11 +2690,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>39</v>
@@ -2685,7 +2706,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2702,11 +2723,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2718,7 +2739,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2735,11 +2756,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2751,7 +2772,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2768,7 +2789,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2805,7 +2826,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>39</v>
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2850,7 +2871,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2867,11 +2888,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2883,7 +2904,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2900,7 +2921,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2916,7 +2937,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>39</v>
@@ -2949,7 +2970,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2966,7 +2987,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,11 +3020,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>39</v>
@@ -3015,7 +3036,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -3048,7 +3069,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3069,7 +3090,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>39</v>
@@ -3114,7 +3135,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3131,11 +3152,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3147,7 +3168,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3164,11 +3185,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3180,7 +3201,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3197,11 +3218,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3234,7 +3255,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>39</v>
@@ -3246,7 +3267,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3263,11 +3284,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>61</v>
@@ -3279,7 +3300,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3296,11 +3317,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>47</v>
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,11 +3350,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3345,7 +3366,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3362,11 +3383,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3451,7 +3472,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>191</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3484,7 +3505,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3531,10 +3552,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,11 +3581,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>39</v>
@@ -3576,28 +3597,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3609,31 +3630,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3682,7 +3703,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3713,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,7 +3795,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3824,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>201</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,7 +3861,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3857,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>237</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3880,7 +3901,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3911,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3923,11 +3944,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3977,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4005,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4038,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4076,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4109,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4104,7 +4125,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4121,11 +4142,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4137,14 +4158,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4175,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4170,14 +4191,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4208,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4203,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,11 +4274,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4269,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,49 +4307,148 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>146</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>20</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>78</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>267</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>20</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>232</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>252</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>20</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>250</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>6114.79</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>262</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>263</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>264</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>6388.9200000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>269</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>270</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>271</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4892,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -182,135 +191,153 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>66.0000</t>
   </si>
   <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>INVESTA OIL REPLACEMENT 120 GM</t>
   </si>
   <si>
@@ -386,7 +413,7 @@
     <t>57.00</t>
   </si>
   <si>
-    <t>57.0000</t>
+    <t>114.0000</t>
   </si>
   <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
@@ -656,7 +683,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -692,6 +719,12 @@
     <t>30:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جل هيركود160مل </t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -770,9 +803,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>فرشه للشعر</t>
   </si>
   <si>
@@ -818,7 +848,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 8:52 PM</t>
+    <t>Monday, 22 September, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1789,7 +1819,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1799,11 +1829,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>39</v>
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1832,14 +1862,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1865,14 +1895,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1881,14 +1911,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1905,7 +1935,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1921,7 +1951,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1938,7 +1968,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1954,7 +1984,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1971,7 +2001,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1987,13 +2017,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2004,7 +2034,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2013,14 +2043,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2030,11 +2060,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2046,14 +2076,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2063,14 +2093,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2086,7 +2116,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2119,7 +2149,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2136,7 +2166,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2162,11 +2192,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2178,14 +2208,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2195,14 +2225,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2211,14 +2241,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2228,11 +2258,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2244,14 +2274,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2261,14 +2291,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2284,7 +2314,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2350,7 +2380,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2383,7 +2413,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,14 +2423,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2409,14 +2439,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,11 +2456,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2442,14 +2472,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,11 +2489,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2475,14 +2505,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,14 +2522,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2515,7 +2545,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2525,11 +2555,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2541,28 +2571,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,11 +2621,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2607,7 +2637,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2624,11 +2654,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2640,28 +2670,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2673,14 +2703,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2720,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,11 +2753,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,11 +2786,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2779,7 +2809,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2793,10 +2823,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2878,7 +2908,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2892,7 +2922,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2904,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,14 +2951,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2944,7 +2974,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,14 +2984,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2970,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,14 +3017,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3003,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3050,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3043,7 +3073,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3060,7 +3090,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3076,7 +3106,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3116,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3142,7 +3172,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3159,7 +3189,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3175,7 +3205,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,11 +3215,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3201,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3234,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3251,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,14 +3314,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3300,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3350,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3413,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3446,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3456,7 +3486,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3472,7 +3502,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3489,7 +3519,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3505,7 +3535,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,11 +3545,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3531,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3552,10 +3582,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3637,7 +3667,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>39</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3670,13 +3700,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3687,7 +3717,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3703,13 +3733,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3720,7 +3750,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3736,24 +3766,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3786,7 +3816,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3802,7 +3832,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3816,7 +3846,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3828,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,11 +3875,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3861,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3901,7 +3931,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3941,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>240</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,7 +3957,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3944,11 +3974,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3967,7 +3997,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3977,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,7 +4023,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4010,14 +4040,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4033,7 +4063,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4043,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4059,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,11 +4106,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4092,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,7 +4155,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4142,11 +4172,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4158,7 +4188,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4175,11 +4205,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4191,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,11 +4238,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4224,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,11 +4271,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4257,14 +4287,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,11 +4304,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4290,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4337,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4323,14 +4353,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,11 +4370,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4356,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4373,11 +4403,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4389,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4406,49 +4436,181 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>6388.9200000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>269</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>270</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>271</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>274</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>56</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>20</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>229</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>275</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>155</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>20</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>84</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>277</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>20</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>243</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>263</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>20</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>261</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6914.9200000000001</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>279</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>280</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>281</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4907,10 +5069,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -509,6 +518,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>23.2650</t>
+  </si>
+  <si>
     <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
   </si>
   <si>
@@ -578,6 +596,21 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -848,7 +881,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 8:59 PM</t>
+    <t>Monday, 22 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1819,7 +1852,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1852,7 +1885,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1862,11 +1895,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>39</v>
@@ -1878,14 +1911,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1895,14 +1928,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1911,14 +1944,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1968,7 +2001,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1984,7 +2017,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2001,7 +2034,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2017,13 +2050,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2034,7 +2067,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2050,13 +2083,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2083,7 +2116,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2100,7 +2133,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2149,7 +2182,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2182,7 +2215,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2192,11 +2225,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2208,7 +2241,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2225,14 +2258,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2265,7 +2298,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2281,7 +2314,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2298,7 +2331,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2314,7 +2347,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2331,7 +2364,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2347,7 +2380,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2380,7 +2413,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2413,7 +2446,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2446,7 +2479,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2479,7 +2512,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2512,7 +2545,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2555,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,14 +2571,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,14 +2588,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2578,7 +2611,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2654,11 +2687,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2670,28 +2703,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2703,31 +2736,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2743,7 +2776,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2760,7 +2793,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2776,7 +2809,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2790,7 +2823,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2802,14 +2835,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,14 +2852,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2842,7 +2875,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2859,7 +2892,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2875,7 +2908,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2908,7 +2941,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2922,7 +2955,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2934,14 +2967,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2951,14 +2984,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2984,14 +3017,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3000,14 +3033,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3040,7 +3073,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3054,10 +3087,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3066,14 +3099,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,14 +3116,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,7 +3153,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>39</v>
@@ -3132,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3172,7 +3205,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3186,10 +3219,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3198,14 +3231,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3264,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3255,7 +3288,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3281,11 +3314,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3297,14 +3330,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3321,7 +3354,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3347,11 +3380,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3363,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,14 +3413,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3396,14 +3429,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,14 +3446,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3446,14 +3479,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3495,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3512,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3528,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,14 +3545,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3528,14 +3561,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,14 +3578,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3561,14 +3594,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3611,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3627,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3644,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,11 +3677,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3667,7 +3700,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,14 +3710,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3700,7 +3733,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3733,7 +3766,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3766,7 +3799,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3809,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,20 +3825,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3813,10 +3846,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,31 +3858,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,31 +3891,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3898,24 +3931,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3948,7 +3981,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3964,7 +3997,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3978,7 +4011,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3990,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,11 +4040,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4023,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,14 +4073,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4063,7 +4096,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4106,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>251</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,7 +4122,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4106,11 +4139,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4129,7 +4162,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,14 +4172,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,7 +4188,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4172,14 +4205,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4195,7 +4228,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4205,14 +4238,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,14 +4254,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4238,11 +4271,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4254,14 +4287,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,14 +4304,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,7 +4320,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4304,11 +4337,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4320,7 +4353,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4337,11 +4370,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4353,14 +4386,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,11 +4403,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4386,14 +4419,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,11 +4436,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4419,14 +4452,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,11 +4469,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4452,14 +4485,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,11 +4502,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4485,14 +4518,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,11 +4535,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4518,14 +4551,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,11 +4568,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4551,14 +4584,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4568,49 +4601,181 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6914.9200000000001</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>279</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>280</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>281</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>285</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>59</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>20</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>240</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>286</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>158</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>20</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>87</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>287</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>288</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>20</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>254</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>289</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>274</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>20</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>272</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>7096.2049999999999</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>290</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>291</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>292</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5089,10 +5254,30 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -881,7 +881,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:03 PM</t>
+    <t>Monday, 22 September, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AQUA B TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -155,6 +164,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -179,9 +197,6 @@
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>55.0000</t>
   </si>
   <si>
@@ -221,6 +236,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -290,16 +314,13 @@
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
     <t>44.00</t>
   </si>
   <si>
-    <t>88.0000</t>
+    <t>132.0000</t>
   </si>
   <si>
     <t>FUSI 2% OINT. 15 GM</t>
@@ -347,6 +368,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>INVESTA OIL REPLACEMENT 120 GM</t>
   </si>
   <si>
@@ -407,15 +437,18 @@
     <t>115.0000</t>
   </si>
   <si>
+    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
   </si>
   <si>
     <t>MALCON MASSAGE CREAM</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -458,6 +491,15 @@
     <t>255.0000</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -479,9 +521,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -533,6 +572,15 @@
     <t>1100.00</t>
   </si>
   <si>
+    <t>PERPDEL GEL</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -635,9 +683,6 @@
     <t>75.00</t>
   </si>
   <si>
-    <t>49.5000</t>
-  </si>
-  <si>
     <t>THYROXINE 50MCG 100 TAB.</t>
   </si>
   <si>
@@ -794,69 +839,69 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t>شامبو نونو100ملل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>لزق بثور</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>شامبو الفيف 200 مل</t>
-  </si>
-  <si>
-    <t>شامبو نونو100ملل</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>فرش اسنان HASI</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>فرشه للشعر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>لزق بثور</t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
-    <t>ماسك جلسات اطفال</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>مجموعه لونا 3 قطع</t>
   </si>
   <si>
@@ -881,7 +926,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:04 PM</t>
+    <t>Monday, 22 September, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,21 +1699,21 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1680,14 +1725,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1720,7 +1765,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1730,14 +1775,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1746,14 +1791,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1763,14 +1808,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1786,7 +1831,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1796,14 +1841,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1812,14 +1857,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1829,14 +1874,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1845,14 +1890,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1862,14 +1907,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1878,14 +1923,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1902,7 +1947,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1918,7 +1963,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1928,14 +1973,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1944,14 +1989,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1961,14 +2006,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1977,14 +2022,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1994,14 +2039,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2010,14 +2055,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2027,14 +2072,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2043,14 +2088,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2060,14 +2105,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2076,28 +2121,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2109,14 +2154,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2126,11 +2171,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2142,14 +2187,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,14 +2204,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2175,28 +2220,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2208,14 +2253,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,11 +2270,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2241,14 +2286,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2258,14 +2303,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2281,7 +2326,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2298,7 +2343,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2314,7 +2359,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2347,7 +2392,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2357,14 +2402,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2373,7 +2418,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2390,14 +2435,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2406,7 +2451,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2423,11 +2468,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2439,14 +2484,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2456,14 +2501,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2472,14 +2517,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2489,11 +2534,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2505,7 +2550,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2522,11 +2567,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2538,14 +2583,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2555,11 +2600,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2571,14 +2616,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,14 +2633,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2604,7 +2649,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2621,11 +2666,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2637,7 +2682,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2654,11 +2699,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2670,14 +2715,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2687,11 +2732,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2703,14 +2748,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,14 +2765,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2749,15 +2794,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2769,14 +2814,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,14 +2831,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2802,7 +2847,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2819,11 +2864,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2835,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,11 +2897,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2868,14 +2913,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2885,14 +2930,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2901,7 +2946,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2914,15 +2959,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2934,14 +2979,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2951,14 +2996,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2967,14 +3012,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,11 +3029,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3000,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3017,14 +3062,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3033,14 +3078,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,14 +3095,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3066,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3083,11 +3128,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3099,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3116,14 +3161,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3132,14 +3177,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3149,14 +3194,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3165,14 +3210,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,14 +3227,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3198,14 +3243,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3215,14 +3260,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3231,14 +3276,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,14 +3293,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3264,14 +3309,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3326,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3330,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,14 +3392,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3363,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,14 +3458,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3429,28 +3474,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3462,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,14 +3524,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3495,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3512,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3528,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3545,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3561,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3594,14 +3639,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3611,14 +3656,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,11 +3689,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3660,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,11 +3722,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3693,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3726,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,14 +3821,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3792,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3809,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3825,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3858,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3891,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,14 +3953,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3924,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,31 +4002,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3990,31 +4035,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,28 +4068,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4056,31 +4101,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,31 +4134,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4122,31 +4167,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,31 +4200,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>259</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4221,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4254,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,11 +4316,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4287,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4320,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,14 +4382,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4353,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4370,11 +4415,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4386,14 +4431,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4403,11 +4448,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4419,14 +4464,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4436,14 +4481,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4452,7 +4497,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4469,14 +4514,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4485,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4502,11 +4547,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4518,14 +4563,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,14 +4580,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4551,7 +4596,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4568,11 +4613,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4584,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,11 +4646,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4617,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>59</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,11 +4679,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4650,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4683,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4716,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,49 +4778,280 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>7096.2049999999999</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>290</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>293</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>281</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>20</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>178</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>291</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>292</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>294</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>24</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>20</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>295</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>297</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>171</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>20</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>298</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>300</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>64</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>20</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>255</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>171</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>20</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>95</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>302</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>303</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>20</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>269</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>304</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>288</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>20</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>286</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>7564.335</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>305</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>306</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>307</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5274,10 +5550,45 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -398,9 +410,6 @@
     <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -806,13 +815,16 @@
     <t>حفاضات كبار سن</t>
   </si>
   <si>
-    <t>1:15</t>
+    <t>1:13</t>
   </si>
   <si>
     <t>230.00</t>
   </si>
   <si>
-    <t>11.5000</t>
+    <t>36.8000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>حمام كريم فاتيكا الصغير</t>
@@ -926,7 +938,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:14 PM</t>
+    <t>Monday, 22 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2326,7 +2338,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,11 +2381,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,11 +2612,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2649,7 +2661,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2821,7 +2833,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2887,7 +2899,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2946,28 +2958,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2979,31 +2991,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3019,7 +3031,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3036,7 +3048,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3052,7 +3064,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3066,7 +3078,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3118,7 +3130,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3135,7 +3147,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3151,7 +3163,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3168,7 +3180,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3201,7 +3213,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3217,7 +3229,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3231,7 +3243,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3349,7 +3361,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3363,10 +3375,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3415,7 +3427,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3448,7 +3460,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3462,7 +3474,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>42</v>
@@ -3474,31 +3486,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3514,24 +3526,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3564,7 +3576,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3580,7 +3592,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3663,7 +3675,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3679,7 +3691,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3712,7 +3724,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,11 +3734,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3771,7 +3783,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3788,7 +3800,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3811,7 +3823,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,7 +3833,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3844,7 +3856,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3877,7 +3889,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3891,10 +3903,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3924,10 +3936,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4009,7 +4021,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4026,7 +4038,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4042,7 +4054,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4059,7 +4071,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4075,7 +4087,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>225</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4141,7 +4153,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4174,7 +4186,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4191,7 +4203,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4207,7 +4219,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4224,7 +4236,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4240,13 +4252,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4257,7 +4269,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4306,7 +4318,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4365,14 +4377,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4419,10 +4431,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,7 +4443,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4448,11 +4460,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4464,7 +4476,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4481,14 +4493,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,7 +4542,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4547,14 +4559,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4587,7 +4599,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4603,7 +4615,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,14 +4625,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4646,11 +4658,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4679,11 +4691,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4712,11 +4724,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4728,14 +4740,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,11 +4757,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,11 +4790,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,11 +4823,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4844,11 +4856,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,11 +4889,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,11 +4922,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4926,14 +4938,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4943,11 +4955,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4959,14 +4971,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4976,11 +4988,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4992,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5009,49 +5021,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>292</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>20</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>290</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>7564.335</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>305</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>306</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>307</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>7612.4049999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>309</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>310</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>311</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5585,10 +5630,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -170,528 +170,552 @@
     <t>99.00</t>
   </si>
   <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>INVESTA OIL REPLACEMENT 120 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>23.2650</t>
+  </si>
+  <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>PERPDEL GEL</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>49.5000</t>
   </si>
   <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>HEALSEC 20MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>INVESTA OIL REPLACEMENT 120 GM</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OSTEO ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>23.2650</t>
-  </si>
-  <si>
-    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>PERPDEL GEL</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>SOFENACIN 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>THYROXINE 50MCG 100 TAB.</t>
   </si>
   <si>
@@ -770,7 +794,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>192.0000</t>
+    <t>288.0000</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -938,7 +962,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:20 PM</t>
+    <t>Monday, 22 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1909,7 +1933,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1926,7 +1950,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2088,7 +2112,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>64</v>
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2117,11 +2141,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>42</v>
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2154,7 +2178,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2166,7 +2190,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2183,11 +2207,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2199,7 +2223,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2216,11 +2240,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>42</v>
@@ -2232,7 +2256,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2249,11 +2273,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2265,7 +2289,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2282,11 +2306,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2298,7 +2322,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2348,11 +2372,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>42</v>
@@ -2364,7 +2388,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2381,11 +2405,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2414,11 +2438,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2430,7 +2454,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2463,7 +2487,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2480,11 +2504,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>64</v>
@@ -2496,7 +2520,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2513,11 +2537,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2529,7 +2553,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2546,11 +2570,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>42</v>
@@ -2562,7 +2586,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2579,11 +2603,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2595,7 +2619,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2612,11 +2636,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2628,7 +2652,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2645,11 +2669,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,7 +2718,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2711,11 +2735,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2727,28 +2751,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2760,7 +2784,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2777,7 +2801,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2800,7 +2824,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2826,7 +2850,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2843,7 +2867,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2866,7 +2890,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2909,11 +2933,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,7 +2966,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2975,11 +2999,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2991,7 +3015,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3004,15 +3028,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3041,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3057,28 +3081,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3130,7 +3154,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,11 +3197,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>42</v>
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,11 +3263,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3272,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3328,7 +3352,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3338,11 +3362,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3371,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3486,7 +3510,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3503,11 +3527,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>42</v>
@@ -3519,31 +3543,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,11 +3593,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>42</v>
@@ -3585,31 +3609,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3684,7 +3708,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3701,11 +3725,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3767,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,14 +3824,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3823,7 +3847,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3840,7 +3864,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3856,7 +3880,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3866,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3882,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,14 +3923,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,7 +3939,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3932,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4031,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4153,7 +4177,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>228</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4186,7 +4210,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4203,7 +4227,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4219,7 +4243,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4266,10 +4290,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4278,31 +4302,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,31 +4335,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4344,31 +4368,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4384,7 +4408,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4410,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4434,7 +4458,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4443,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4476,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,11 +4517,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4516,7 +4540,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,7 +4566,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4559,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,7 +4599,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4592,11 +4616,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4608,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4625,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4641,7 +4665,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4658,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4681,7 +4705,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4695,7 +4719,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4707,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4724,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4757,11 +4781,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4773,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,11 +4814,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4806,14 +4830,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,11 +4847,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4839,14 +4863,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4856,11 +4880,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4872,7 +4896,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4889,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4905,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4922,11 +4946,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4938,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4971,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4988,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5004,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>178</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5021,11 +5045,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5037,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,49 +5078,148 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>313</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>178</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>20</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>98</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>314</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>315</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>20</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>281</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>316</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>300</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>20</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>298</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>7612.4049999999997</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>309</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>310</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>311</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>8169.4549999999999</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>317</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>318</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>319</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5635,10 +5758,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:23 PM</t>
+    <t>Monday, 22 September, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:24 PM</t>
+    <t>Monday, 22 September, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -494,6 +512,15 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>MYOFEN 30 CAPS</t>
   </si>
   <si>
@@ -818,12 +845,6 @@
     <t>بادي لوشن كير اند مور</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -908,6 +929,15 @@
     <t>25.00</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -962,7 +992,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:35 PM</t>
+    <t>Monday, 22 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2494,7 +2524,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2511,7 +2541,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2527,7 +2557,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2544,7 +2574,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2560,7 +2590,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2577,7 +2607,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2593,7 +2623,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2610,7 +2640,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2626,7 +2656,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2659,7 +2689,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2692,7 +2722,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2709,7 +2739,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2758,13 +2788,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2775,7 +2805,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2824,13 +2854,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2867,11 +2897,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2883,14 +2913,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,14 +2930,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2916,7 +2946,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2933,11 +2963,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2949,14 +2979,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,14 +2996,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2989,7 +3019,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3022,7 +3052,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,11 +3062,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3048,7 +3078,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3065,11 +3095,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3081,7 +3111,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3094,7 +3124,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3102,7 +3132,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3114,14 +3144,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3147,28 +3177,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3180,14 +3210,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,14 +3227,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3213,14 +3243,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,11 +3293,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3286,7 +3316,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3319,7 +3349,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3336,7 +3366,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3366,7 +3396,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3378,14 +3408,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,11 +3425,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>42</v>
@@ -3411,14 +3441,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,11 +3458,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3444,14 +3474,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,11 +3491,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3484,7 +3514,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,14 +3524,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3517,7 +3547,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3557,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3573,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3590,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3576,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3609,31 +3639,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3672,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3682,7 +3712,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3696,10 +3726,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3708,24 +3738,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3781,7 +3811,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3798,7 +3828,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3824,11 +3854,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3840,14 +3870,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3864,7 +3894,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3880,7 +3910,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,14 +3936,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3953,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3969,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3986,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3972,14 +4002,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +4019,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4005,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,14 +4052,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4062,7 +4092,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4088,14 +4118,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4151,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4167,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4184,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4194,7 +4224,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4210,7 +4240,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4227,7 +4257,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4243,7 +4273,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,11 +4283,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4290,10 +4320,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>236</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4332,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4349,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4365,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4382,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4375,7 +4405,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4415,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>42</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4408,13 +4438,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4425,7 +4455,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4441,13 +4471,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4458,7 +4488,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4474,24 +4504,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4530,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,11 +4547,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4533,14 +4563,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,11 +4613,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4599,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,11 +4646,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4632,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,14 +4712,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4715,11 +4745,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4731,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,7 +4794,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4781,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,14 +4827,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,11 +4844,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>66</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4847,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4893,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,11 +4910,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4896,14 +4926,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,11 +4943,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4929,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4962,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4995,14 +5025,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5028,14 +5058,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,11 +5075,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5061,14 +5091,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5108,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5094,14 +5124,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,11 +5141,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5127,14 +5157,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5160,14 +5190,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,49 +5207,181 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>322</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>64</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>20</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>275</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>323</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>187</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>20</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>98</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>324</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>325</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>20</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>288</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>326</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>310</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>20</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>305</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>8169.4549999999999</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>317</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>318</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>319</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>8548.4549999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>327</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>328</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>329</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5773,10 +5935,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -320,6 +329,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -425,9 +443,6 @@
     <t>INVESTA OIL REPLACEMENT 120 GM</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
@@ -446,6 +461,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -491,6 +512,12 @@
     <t>MALCON MASSAGE CREAM</t>
   </si>
   <si>
+    <t>MAREVAN 1MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -500,6 +527,12 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -668,6 +701,15 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
     <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -794,9 +836,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -887,16 +926,13 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -950,15 +986,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>لزق بثور</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>لزق بثور</t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -992,7 +1028,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:36 PM</t>
+    <t>Monday, 22 September, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2293,13 +2329,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2326,13 +2362,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2359,7 +2395,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2376,7 +2412,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2385,14 +2421,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2402,14 +2438,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2418,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2442,7 +2478,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2458,7 +2494,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2491,7 +2527,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2501,11 +2537,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2517,14 +2553,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2534,11 +2570,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>42</v>
@@ -2550,14 +2586,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2567,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2590,7 +2626,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2607,7 +2643,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2623,7 +2659,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2640,7 +2676,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2656,7 +2692,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2689,7 +2725,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2706,7 +2742,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2722,7 +2758,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2755,7 +2791,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2788,7 +2824,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2805,7 +2841,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2854,13 +2890,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2871,7 +2907,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2920,13 +2956,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2963,7 +2999,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2986,7 +3022,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2996,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3012,7 +3048,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3029,7 +3065,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3052,7 +3088,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3062,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3078,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3095,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3111,7 +3147,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3128,11 +3164,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3144,7 +3180,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3161,11 +3197,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3177,28 +3213,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3210,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3243,7 +3279,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3260,11 +3296,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3276,28 +3312,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3316,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,11 +3362,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>42</v>
@@ -3342,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3359,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3375,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3392,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3408,7 +3444,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3425,14 +3461,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3441,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3458,11 +3494,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3474,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,14 +3527,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3507,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3524,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>42</v>
@@ -3540,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3557,11 +3593,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3573,7 +3609,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3590,14 +3626,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3606,14 +3642,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3623,14 +3659,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3639,14 +3675,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3656,14 +3692,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3672,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,11 +3725,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>42</v>
@@ -3705,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3722,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3738,28 +3774,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3771,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3788,14 +3824,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3804,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3821,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3837,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,14 +3890,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3870,14 +3906,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3887,11 +3923,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>42</v>
@@ -3903,31 +3939,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3936,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3953,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3969,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3986,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4002,7 +4038,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4019,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4035,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4052,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>42</v>
@@ -4068,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4085,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4101,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4118,11 +4154,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>42</v>
@@ -4134,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4151,14 +4187,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4167,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4200,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,11 +4253,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4233,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4266,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4283,14 +4319,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4299,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4316,11 +4352,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>42</v>
@@ -4332,14 +4368,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4385,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4365,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,14 +4418,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4398,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4415,14 +4451,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4431,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4448,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4464,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4481,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4497,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4514,11 +4550,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>42</v>
@@ -4530,31 +4566,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4563,28 +4599,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4596,31 +4632,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4629,31 +4665,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4662,31 +4698,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>286</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,31 +4731,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4728,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4745,11 +4781,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4768,7 +4804,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>293</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4794,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>295</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,11 +4880,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4860,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4877,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,7 +4929,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4910,11 +4946,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4926,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4943,11 +4979,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>132</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4959,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4976,14 +5012,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4992,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5009,14 +5045,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5025,14 +5061,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5042,11 +5078,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5058,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5075,14 +5111,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5091,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5108,11 +5144,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5124,14 +5160,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5141,11 +5177,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5157,14 +5193,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5174,11 +5210,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5190,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5207,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5223,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5240,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5256,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5273,14 +5309,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5289,14 +5325,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5306,11 +5342,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5329,7 +5365,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5339,49 +5375,247 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>24</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>20</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>329</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>331</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>198</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>20</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>332</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>334</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>64</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>20</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>288</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>335</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>198</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>20</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>101</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>336</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>337</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>20</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>301</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>338</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>322</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>20</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>317</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>8548.4549999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>327</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>328</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>329</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>8882.9850000000006</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>339</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>340</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>341</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5955,10 +6189,40 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -581,6 +581,15 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -629,6 +638,18 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
   </si>
   <si>
@@ -800,9 +821,6 @@
     <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>92.0000</t>
   </si>
   <si>
@@ -929,12 +947,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -1028,7 +1040,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:37 PM</t>
+    <t>Monday, 22 September, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3649,7 +3661,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3682,7 +3694,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3696,7 +3708,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,14 +3737,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,14 +3770,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3814,7 +3826,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3828,10 +3840,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3880,7 +3892,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,11 +3902,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>42</v>
@@ -3906,7 +3918,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3923,11 +3935,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>42</v>
@@ -3939,31 +3951,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,11 +4001,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>42</v>
@@ -4012,13 +4024,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4029,7 +4041,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4045,7 +4057,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4144,7 +4156,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>42</v>
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,7 +4248,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4253,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>42</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4430,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4458,7 +4470,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4474,7 +4486,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4491,7 +4503,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4507,7 +4519,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4529,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4573,7 +4585,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4590,7 +4602,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4606,7 +4618,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>259</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4705,7 +4717,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>64</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4738,7 +4750,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4771,13 +4783,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4788,7 +4800,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4804,24 +4816,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4830,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4863,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,11 +4892,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>299</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +4991,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,7 +5007,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,7 +5040,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5045,14 +5057,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>307</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5061,7 +5073,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5078,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5101,7 +5113,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,7 +5139,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5144,11 +5156,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5160,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5181,10 +5193,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,14 +5205,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5210,11 +5222,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5226,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5243,11 +5255,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5259,7 +5271,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5276,11 +5288,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5292,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,14 +5321,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5325,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5358,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,14 +5387,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,11 +5420,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5424,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>198</v>
+        <v>316</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,11 +5453,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5457,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5497,7 +5509,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5507,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>102</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5523,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>337</v>
+        <v>64</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5540,11 +5552,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5556,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5573,49 +5585,115 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>340</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>341</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>20</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>307</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>342</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>326</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>20</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>321</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>8882.9850000000006</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>339</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>340</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>341</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>8918.5450000000001</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>343</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>344</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>345</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6219,10 +6297,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>44.0000</t>
   </si>
   <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
@@ -1025,6 +1025,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
@@ -1040,7 +1049,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:38 PM</t>
+    <t>Monday, 22 September, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2770,7 +2779,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2787,7 +2796,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -5542,7 +5551,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>64</v>
+        <v>339</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,11 +5561,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5568,14 +5577,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,11 +5594,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5601,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>201</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,11 +5627,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5634,14 +5643,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,49 +5660,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>345</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>326</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>20</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>321</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>66</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>8918.5450000000001</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>343</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>344</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>345</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>8964.5450000000001</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>346</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>347</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>348</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6307,10 +6349,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>40.8000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -260,6 +272,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>DROPIFLOX OTIC DROPS 15 ML</t>
   </si>
   <si>
@@ -368,6 +389,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -431,6 +461,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>INIZIO CREAM</t>
   </si>
   <si>
@@ -566,9 +605,6 @@
     <t>NESTOGEN 1 MILK 400 GM</t>
   </si>
   <si>
-    <t>255.00</t>
-  </si>
-  <si>
     <t>255.0000</t>
   </si>
   <si>
@@ -641,9 +677,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -653,9 +686,6 @@
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
@@ -722,15 +752,24 @@
     <t>37.6000</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
     <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -1049,7 +1088,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:40 PM</t>
+    <t>Monday, 22 September, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2004,7 +2043,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2013,14 +2052,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2037,7 +2076,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2046,14 +2085,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2070,7 +2109,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2086,7 +2125,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2096,11 +2135,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>42</v>
@@ -2112,14 +2151,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2129,11 +2168,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>42</v>
@@ -2145,14 +2184,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2162,7 +2201,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -2199,10 +2238,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2211,14 +2250,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2228,14 +2267,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2261,14 +2300,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2277,14 +2316,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2294,11 +2333,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2310,14 +2349,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2327,14 +2366,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2343,14 +2382,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2360,14 +2399,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2376,31 +2415,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,14 +2448,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2426,11 +2465,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2442,31 +2481,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2482,7 +2521,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2492,14 +2531,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2508,14 +2547,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2525,14 +2564,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2548,7 +2587,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2558,14 +2597,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,14 +2613,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,14 +2630,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2607,14 +2646,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2624,11 +2663,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2640,14 +2679,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2657,11 +2696,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>42</v>
@@ -2673,14 +2712,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,14 +2729,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2706,14 +2745,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2762,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2739,14 +2778,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2795,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,7 +2811,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2789,14 +2828,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2805,14 +2844,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,11 +2861,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2838,14 +2877,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2894,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2871,14 +2910,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,14 +2927,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2904,14 +2943,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2921,14 +2960,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2937,14 +2976,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,11 +2993,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2970,7 +3009,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2983,15 +3022,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -3003,14 +3042,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3059,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3036,14 +3075,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,11 +3092,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3069,7 +3108,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3086,11 +3125,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3102,31 +3141,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3135,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3191,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,14 +3207,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3185,11 +3224,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3201,14 +3240,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,11 +3257,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3234,14 +3273,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,14 +3290,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3267,14 +3306,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3284,14 +3323,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3300,14 +3339,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,11 +3356,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3333,28 +3372,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3366,14 +3405,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3383,14 +3422,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3399,14 +3438,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3416,14 +3455,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3432,14 +3471,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,14 +3488,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3465,28 +3504,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3498,14 +3537,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,14 +3554,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3570,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,14 +3587,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3564,14 +3603,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,11 +3620,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>42</v>
@@ -3597,14 +3636,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,11 +3653,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3630,14 +3669,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,14 +3686,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3663,14 +3702,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,11 +3719,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>42</v>
@@ -3696,14 +3735,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3752,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,7 +3768,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3746,11 +3785,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3762,14 +3801,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,11 +3818,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>42</v>
@@ -3795,14 +3834,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,14 +3851,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,7 +3867,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3845,11 +3884,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3861,14 +3900,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,14 +3917,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3894,14 +3933,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,11 +3950,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>42</v>
@@ -3927,14 +3966,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3951,7 +3990,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3967,7 +4006,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3984,7 +4023,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4000,7 +4039,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4014,10 +4053,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4033,13 +4072,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4050,7 +4089,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4066,7 +4105,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,11 +4115,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>42</v>
@@ -4092,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4181,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,31 +4197,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,14 +4247,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4257,7 +4296,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4274,11 +4313,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4290,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4362,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4379,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>250</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4363,7 +4402,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4412,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4429,7 +4468,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4478,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4462,7 +4501,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4479,7 +4518,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4495,7 +4534,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,14 +4544,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4521,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4538,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4554,14 +4593,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,14 +4610,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4587,14 +4626,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,14 +4643,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4620,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,14 +4676,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,11 +4742,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4719,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4775,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>266</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4759,7 +4798,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4776,7 +4815,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4792,7 +4831,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4809,7 +4848,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4825,7 +4864,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4842,7 +4881,7 @@
         <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4858,21 +4897,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4884,31 +4923,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4924,24 +4963,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>101</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4950,31 +4989,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,31 +5022,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>59</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>305</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5023,7 +5062,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5037,7 +5076,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5049,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5066,11 +5105,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5082,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,14 +5138,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,14 +5154,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,14 +5171,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5204,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5237,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,7 +5253,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5231,11 +5270,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5247,14 +5286,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,14 +5303,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,14 +5319,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5297,14 +5336,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5320,7 +5359,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>326</v>
+        <v>24</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5330,11 +5369,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5346,14 +5385,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5363,14 +5402,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,7 +5418,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5396,14 +5435,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,7 +5451,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5429,11 +5468,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>132</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5445,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5462,11 +5501,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5478,14 +5517,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5495,11 +5534,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5511,14 +5550,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5528,11 +5567,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5544,14 +5583,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>339</v>
+        <v>24</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,14 +5600,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5577,14 +5616,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5594,11 +5633,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>294</v>
+        <v>142</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>295</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5610,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5627,11 +5666,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>102</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5643,14 +5682,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5660,11 +5699,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>215</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5676,14 +5715,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5693,49 +5732,214 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>8964.5450000000001</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>346</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>347</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>348</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>351</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>352</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>20</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>353</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>354</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>68</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>20</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>307</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>355</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>213</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>20</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>108</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>356</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>357</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>20</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>320</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>358</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>339</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>20</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>334</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>9213.3850000000002</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>359</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>360</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>361</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6354,10 +6558,35 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -248,405 +248,408 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:3</t>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>INVESTA OIL REPLACEMENT 120 GM</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MAREVAN 1MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
   </si>
   <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FONDACLAV 1GM 12 F.C. TABS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>HEALSEC 20MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>INIZIO CREAM</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>INVESTA OIL REPLACEMENT 120 GM</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>MAREVAN 1MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE 30 TAB</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -984,6 +987,9 @@
   </si>
   <si>
     <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -2340,7 +2346,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -3954,7 +3960,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>42</v>
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3983,11 +3989,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3999,7 +4005,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4016,11 +4022,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4032,7 +4038,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4049,7 +4055,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4065,7 +4071,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>42</v>
@@ -4098,7 +4104,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4119,7 +4125,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>42</v>
@@ -4131,7 +4137,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4148,11 +4154,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>42</v>
@@ -4164,7 +4170,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4181,7 +4187,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4197,7 +4203,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4214,11 +4220,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4247,11 +4253,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>42</v>
@@ -4263,7 +4269,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4280,11 +4286,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4296,7 +4302,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4317,7 +4323,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4346,11 +4352,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>42</v>
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4428,7 +4434,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>42</v>
@@ -4461,7 +4467,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4478,11 +4484,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4494,7 +4500,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4511,11 +4517,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4527,7 +4533,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4544,11 +4550,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4560,7 +4566,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4581,7 +4587,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>42</v>
@@ -4593,7 +4599,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4610,11 +4616,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>42</v>
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4647,7 +4653,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>42</v>
@@ -4659,7 +4665,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4676,11 +4682,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>75</v>
@@ -4692,7 +4698,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4709,11 +4715,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>54</v>
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4742,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4758,7 +4764,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4775,11 +4781,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4791,7 +4797,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4808,11 +4814,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4824,7 +4830,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4841,11 +4847,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>42</v>
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,11 +4880,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4890,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4923,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4956,7 +4962,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4973,11 +4979,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>42</v>
@@ -4989,7 +4995,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5006,11 +5012,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>68</v>
@@ -5022,7 +5028,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5039,11 +5045,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>42</v>
@@ -5055,7 +5061,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5072,11 +5078,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5088,7 +5094,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5121,14 +5127,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5154,7 +5160,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5171,11 +5177,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5187,14 +5193,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,14 +5210,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,7 +5226,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5237,11 +5243,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5253,7 +5259,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5286,7 +5292,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5303,7 +5309,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5319,7 +5325,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5336,14 +5342,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>72</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5352,7 +5358,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5369,11 +5375,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5385,14 +5391,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,11 +5408,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>27</v>
@@ -5418,7 +5424,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5451,7 +5457,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5468,7 +5474,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5484,7 +5490,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5501,11 +5507,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5517,14 +5523,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,11 +5540,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5550,7 +5556,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5567,11 +5573,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5583,7 +5589,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5600,7 +5606,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5616,7 +5622,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5649,14 +5655,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,11 +5672,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5682,7 +5688,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5699,11 +5705,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5715,14 +5721,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,11 +5738,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5748,14 +5754,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,11 +5771,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5781,7 +5787,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5798,11 +5804,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5814,14 +5820,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5847,14 +5853,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,11 +5870,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5880,14 +5886,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5897,7 +5903,7 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
@@ -5909,13 +5915,13 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>9213.3850000000002</v>
+        <v>9227.2649999999994</v>
       </c>
       <c r="Q134" s="13"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
       <c t="s" r="A135" s="14">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -5923,13 +5929,13 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c t="s" r="G135" s="15">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="16"/>
       <c t="s" r="K135" s="17">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L135" s="17"/>
       <c r="M135" s="17"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -1094,7 +1094,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 9:44 PM</t>
+    <t>Monday, 22 September, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -350,6 +359,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FONDACLAV 1GM 12 F.C. TABS</t>
   </si>
   <si>
@@ -1094,7 +1115,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:05 PM</t>
+    <t>Monday, 22 September, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2626,7 +2647,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2643,7 +2664,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2659,7 +2680,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2692,7 +2713,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2709,7 +2730,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2725,7 +2746,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2735,14 +2756,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2768,11 +2789,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>42</v>
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2999,14 +3020,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3081,7 +3102,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3098,11 +3119,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3114,14 +3135,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3147,7 +3168,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3160,15 +3181,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3180,7 +3201,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3197,11 +3218,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3213,28 +3234,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3246,7 +3267,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3263,11 +3284,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,14 +3350,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3362,14 +3383,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3411,14 +3432,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3428,11 +3449,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3444,14 +3465,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3461,11 +3482,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3477,7 +3498,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3494,11 +3515,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3510,7 +3531,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3523,7 +3544,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3531,7 +3552,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3543,14 +3564,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3576,31 +3597,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3609,14 +3630,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3626,11 +3647,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>42</v>
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3692,14 +3713,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3807,14 +3828,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3824,11 +3845,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>42</v>
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3857,14 +3878,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3873,7 +3894,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3890,14 +3911,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3906,14 +3927,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3944,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,14 +3977,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3972,14 +3993,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3989,11 +4010,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4012,7 +4033,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4022,14 +4043,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4045,7 +4066,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,14 +4076,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,14 +4109,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4104,14 +4125,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4121,14 +4142,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4137,14 +4158,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4154,11 +4175,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>42</v>
@@ -4170,7 +4191,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4187,11 +4208,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>42</v>
@@ -4203,31 +4224,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4253,11 +4274,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>42</v>
@@ -4276,13 +4297,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4293,7 +4314,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4309,7 +4330,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4319,14 +4340,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4335,14 +4356,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,14 +4373,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4368,14 +4389,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4406,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>251</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,14 +4422,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4439,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4434,14 +4455,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4472,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>42</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4467,14 +4488,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,14 +4505,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,14 +4521,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4517,14 +4538,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4533,7 +4554,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4550,11 +4571,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4566,14 +4587,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,14 +4604,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4599,14 +4620,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,14 +4637,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4632,14 +4653,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,11 +4670,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>42</v>
@@ -4665,14 +4686,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,14 +4703,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4698,14 +4719,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,14 +4736,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4731,14 +4752,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4755,7 +4776,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4771,7 +4792,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,14 +4802,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4797,14 +4818,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,11 +4835,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4830,14 +4851,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4847,14 +4868,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4863,14 +4884,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4880,14 +4901,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4896,14 +4917,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,14 +4934,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4929,14 +4950,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,14 +4967,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>280</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4962,14 +4983,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4979,14 +5000,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,14 +5016,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5033,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>68</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5049,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,11 +5066,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>42</v>
@@ -5061,31 +5082,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5094,31 +5115,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5127,14 +5148,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5144,11 +5165,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5160,14 +5181,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,11 +5198,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>274</v>
+        <v>149</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5193,14 +5214,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,14 +5231,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>319</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5233,7 +5254,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5243,11 +5264,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5266,7 +5287,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>24</v>
+        <v>323</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5276,14 +5297,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>142</v>
+        <v>324</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5292,7 +5313,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5309,14 +5330,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,7 +5346,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5342,14 +5363,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>326</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5358,7 +5379,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5375,14 +5396,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5391,14 +5412,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,14 +5429,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q118" s="12">
         <v>333</v>
-      </c>
-      <c t="s" r="Q118" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5441,11 +5462,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>142</v>
+        <v>335</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5457,14 +5478,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5474,14 +5495,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5490,14 +5511,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,11 +5528,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5523,14 +5544,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5540,11 +5561,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5556,7 +5577,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5573,11 +5594,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5589,14 +5610,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,14 +5627,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5622,14 +5643,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5639,11 +5660,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5655,14 +5676,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5672,14 +5693,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>346</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5688,14 +5709,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,11 +5726,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>349</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5721,14 +5742,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,11 +5759,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5754,14 +5775,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>354</v>
+        <v>24</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5775,7 +5796,7 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5787,14 +5808,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,11 +5825,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5820,14 +5841,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5837,11 +5858,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>109</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5853,14 +5874,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5870,11 +5891,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5886,14 +5907,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5903,49 +5924,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>365</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>366</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>20</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>328</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>367</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>348</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>20</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>343</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>70</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>9227.2649999999994</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>361</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>362</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>363</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>9325.2649999999994</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>368</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>369</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>370</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6589,10 +6676,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>CETAL 1000MG 15 TABS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -212,12 +221,39 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>COLLOMAK TOP. SOUTION 10 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -239,19 +275,16 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>21.0000</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>47.8800</t>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>83.8800</t>
   </si>
   <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
@@ -263,6 +296,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DEXAWEST 60 MG 14 CAPS</t>
   </si>
   <si>
@@ -395,9 +437,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>132.0000</t>
   </si>
   <si>
@@ -410,6 +449,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>G.XIR (D310000IU) 30 TABLETS</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -482,6 +530,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -668,9 +725,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -713,6 +767,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -752,9 +809,6 @@
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -824,9 +878,6 @@
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -1019,7 +1070,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -1070,9 +1121,6 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -1115,7 +1163,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:06 PM</t>
+    <t>Monday, 22 September, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2152,7 +2200,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2162,11 +2210,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>42</v>
@@ -2178,14 +2226,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2218,7 +2266,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2228,11 +2276,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>42</v>
@@ -2244,14 +2292,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2261,11 +2309,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>42</v>
@@ -2277,14 +2325,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2294,14 +2342,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2310,14 +2358,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2327,14 +2375,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2343,14 +2391,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2360,14 +2408,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2376,14 +2424,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2393,14 +2441,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2409,14 +2457,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2430,10 +2478,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2442,14 +2490,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2459,11 +2507,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>42</v>
@@ -2475,14 +2523,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2492,14 +2540,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2508,28 +2556,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2541,14 +2589,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2558,11 +2606,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2574,14 +2622,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2591,14 +2639,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2607,14 +2655,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2624,11 +2672,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>42</v>
@@ -2640,14 +2688,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2657,14 +2705,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2673,28 +2721,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2706,14 +2754,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2723,11 +2771,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2739,14 +2787,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2756,14 +2804,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2772,14 +2820,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2789,11 +2837,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>42</v>
@@ -2805,14 +2853,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2822,14 +2870,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2845,7 +2893,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2862,7 +2910,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2878,7 +2926,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2895,7 +2943,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2911,7 +2959,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2921,14 +2969,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2937,14 +2985,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2954,14 +3002,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2970,14 +3018,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2987,14 +3035,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3003,14 +3051,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3020,14 +3068,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3036,14 +3084,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3053,14 +3101,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3069,14 +3117,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3086,11 +3134,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3102,7 +3150,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3119,11 +3167,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3135,14 +3183,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3152,14 +3200,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3168,14 +3216,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3185,14 +3233,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3201,14 +3249,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3218,14 +3266,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3234,28 +3282,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3267,14 +3315,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3284,11 +3332,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3300,14 +3348,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3317,11 +3365,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3333,14 +3381,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3350,14 +3398,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3373,7 +3421,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3383,14 +3431,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3399,14 +3447,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3416,14 +3464,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3432,7 +3480,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3449,11 +3497,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3465,28 +3513,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3498,14 +3546,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3515,11 +3563,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3531,14 +3579,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3548,11 +3596,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3564,14 +3612,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3581,11 +3629,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3597,31 +3645,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3630,14 +3678,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3647,14 +3695,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3663,14 +3711,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3680,14 +3728,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3696,14 +3744,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3713,14 +3761,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3729,7 +3777,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3746,11 +3794,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3762,14 +3810,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3779,11 +3827,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3795,14 +3843,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3812,14 +3860,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3828,31 +3876,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3861,7 +3909,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3878,14 +3926,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3894,14 +3942,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3911,14 +3959,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3927,14 +3975,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,11 +3992,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>42</v>
@@ -3960,7 +4008,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3977,7 +4025,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -4000,7 +4048,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4014,7 +4062,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4033,7 +4081,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4043,7 +4091,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4066,7 +4114,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4076,14 +4124,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4092,14 +4140,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4109,11 +4157,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4125,14 +4173,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4142,14 +4190,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,14 +4206,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4175,11 +4223,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>42</v>
@@ -4191,14 +4239,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,14 +4256,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4231,7 +4279,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4245,10 +4293,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4257,14 +4305,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4274,11 +4322,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>42</v>
@@ -4290,20 +4338,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4330,7 +4378,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4340,14 +4388,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4356,14 +4404,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4373,11 +4421,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4389,14 +4437,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4406,14 +4454,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4422,14 +4470,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4439,11 +4487,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>42</v>
@@ -4455,14 +4503,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4472,14 +4520,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>258</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4488,14 +4536,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4505,14 +4553,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4521,7 +4569,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4538,11 +4586,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>42</v>
@@ -4554,28 +4602,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4587,14 +4635,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4604,14 +4652,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4620,14 +4668,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4637,14 +4685,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4653,14 +4701,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4670,14 +4718,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4686,14 +4734,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,11 +4751,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>42</v>
@@ -4719,14 +4767,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4736,14 +4784,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>42</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4752,14 +4800,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4769,14 +4817,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4785,7 +4833,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4802,14 +4850,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4818,14 +4866,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4835,11 +4883,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4851,7 +4899,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4868,11 +4916,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4884,14 +4932,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4901,11 +4949,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4917,14 +4965,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4934,11 +4982,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>42</v>
@@ -4950,14 +4998,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4967,14 +5015,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4983,14 +5031,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5000,14 +5048,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5016,14 +5064,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5033,14 +5081,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>287</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5049,7 +5097,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5066,14 +5114,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5082,14 +5130,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5099,14 +5147,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5115,14 +5163,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5132,14 +5180,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5148,28 +5196,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5181,31 +5229,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>149</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5214,31 +5262,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>112</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5247,28 +5295,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5280,31 +5328,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5313,31 +5361,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5346,31 +5394,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5379,31 +5427,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5412,14 +5460,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5429,14 +5477,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5452,7 +5500,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5462,11 +5510,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5478,14 +5526,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5495,14 +5543,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>340</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5511,14 +5559,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5528,11 +5576,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5544,14 +5592,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5561,14 +5609,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5584,7 +5632,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5598,7 +5646,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5610,14 +5658,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>348</v>
+        <v>24</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5627,11 +5675,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5643,14 +5691,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5660,14 +5708,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>321</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5676,7 +5724,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5693,14 +5741,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>27</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5716,7 +5764,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5726,14 +5774,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>150</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5742,14 +5790,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5759,14 +5807,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5775,7 +5823,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5792,11 +5840,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5808,14 +5856,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5825,11 +5873,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5841,14 +5889,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>361</v>
+        <v>27</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5862,7 +5910,7 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5874,14 +5922,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5891,11 +5939,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5907,14 +5955,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5924,11 +5972,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5940,14 +5988,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>366</v>
+        <v>24</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5957,14 +6005,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5973,14 +6021,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5990,49 +6038,313 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>343</v>
+        <v>165</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>9325.2649999999994</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>368</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>369</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>355</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>20</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>246</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>370</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>24</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>20</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>371</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>372</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>373</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>239</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>20</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>374</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>375</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>376</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>377</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>20</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>378</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>379</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>74</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>20</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>332</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>380</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>239</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>20</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>125</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>381</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>382</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>20</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>345</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>383</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>365</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>20</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>360</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>9771.625</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
+        <v>384</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>385</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>386</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6686,10 +6998,50 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>CERELAC قمح ولبن</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
@@ -218,9 +227,6 @@
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -257,843 +263,879 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>83.8800</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>G.XIR (D310000IU) 30 TABLETS</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>INVESTA OIL REPLACEMENT 120 GM</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MAREVAN 1MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>23.2650</t>
+  </si>
+  <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>PERPDEL GEL</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>THYROXINE 50MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8221:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>بادي لوشن ايفا</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جل هيركود160مل </t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>36.8000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا الصغير</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>رول اون نيفيا</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t>شامبو نونو100ملل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>83.8800</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FONDACLAV 1GM 12 F.C. TABS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>G.XIR (D310000IU) 30 TABLETS</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>HEALSEC 20MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>INIZIO CREAM</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>INVESTA OIL REPLACEMENT 120 GM</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>MAREVAN 1MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE 30 TAB</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>195.0000</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OSTEO ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 1000 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>23.2650</t>
-  </si>
-  <si>
-    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>PERPDEL GEL</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>364.00</t>
-  </si>
-  <si>
-    <t>182.0000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>SOFENACIN 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>THYROXINE 50MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8221:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>288.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن ايفا</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جل هيركود160مل </t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>1:13</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>36.8000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا الصغير</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>رول اون نيفيا</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>شامبو الفيف 200 مل</t>
-  </si>
-  <si>
-    <t>شامبو نونو100ملل</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -1163,7 +1205,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:33 PM</t>
+    <t>Monday, 22 September, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,13 +2242,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2217,7 +2259,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2233,7 +2275,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2243,11 +2285,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>42</v>
@@ -2259,14 +2301,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2299,7 +2341,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2309,11 +2351,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>42</v>
@@ -2325,14 +2367,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2342,11 +2384,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>42</v>
@@ -2358,14 +2400,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2375,14 +2417,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2391,14 +2433,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2408,11 +2450,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2424,14 +2466,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2441,14 +2483,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2457,14 +2499,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2474,14 +2516,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2490,14 +2532,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2507,14 +2549,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2523,14 +2565,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2540,14 +2582,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2556,14 +2598,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2573,14 +2615,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2589,14 +2631,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2606,11 +2648,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2622,14 +2664,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2639,14 +2681,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2655,14 +2697,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2672,14 +2714,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2688,14 +2730,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2705,14 +2747,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2721,31 +2763,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2754,14 +2796,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2771,11 +2813,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2787,31 +2829,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2820,14 +2862,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2837,14 +2879,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2853,14 +2895,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2870,14 +2912,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2886,14 +2928,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2903,14 +2945,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2919,14 +2961,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2936,14 +2978,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2952,14 +2994,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2969,14 +3011,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2985,14 +3027,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3002,11 +3044,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>42</v>
@@ -3018,14 +3060,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3035,11 +3077,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -3051,14 +3093,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3068,11 +3110,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>42</v>
@@ -3084,14 +3126,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3101,14 +3143,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3117,7 +3159,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3134,11 +3176,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3157,7 +3199,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3174,7 +3216,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3190,7 +3232,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3200,14 +3242,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3216,14 +3258,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3233,14 +3275,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3249,14 +3291,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3266,14 +3308,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3282,14 +3324,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3299,11 +3341,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3315,14 +3357,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3332,14 +3374,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3348,14 +3390,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3365,14 +3407,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3381,14 +3423,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3398,14 +3440,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3414,14 +3456,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3431,11 +3473,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3447,14 +3489,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3464,11 +3506,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>42</v>
@@ -3480,7 +3522,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3497,11 +3539,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3513,31 +3555,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3546,7 +3588,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3563,7 +3605,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3586,7 +3628,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3603,7 +3645,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3629,11 +3671,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3645,31 +3687,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3678,14 +3720,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3695,14 +3737,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3711,14 +3753,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3728,11 +3770,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3744,14 +3786,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3761,11 +3803,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3777,14 +3819,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3794,14 +3836,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3817,7 +3859,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3827,14 +3869,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3850,7 +3892,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3860,11 +3902,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3876,28 +3918,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3909,14 +3951,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3926,14 +3968,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3942,14 +3984,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3959,14 +4001,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3975,14 +4017,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3992,14 +4034,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4008,24 +4050,24 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -4041,14 +4083,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4058,14 +4100,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4074,14 +4116,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4091,14 +4133,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4107,14 +4149,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4124,11 +4166,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>42</v>
@@ -4140,14 +4182,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4157,11 +4199,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4173,14 +4215,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4190,14 +4232,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4213,7 +4255,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4223,7 +4265,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4246,7 +4288,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4263,7 +4305,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4289,11 +4331,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4312,7 +4354,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4322,11 +4364,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>42</v>
@@ -4338,14 +4380,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4355,14 +4397,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4411,7 +4453,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4425,10 +4467,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4444,7 +4486,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4454,11 +4496,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>42</v>
@@ -4470,14 +4512,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4487,14 +4529,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4503,7 +4545,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4520,14 +4562,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4536,14 +4578,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4553,14 +4595,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4569,14 +4611,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4586,11 +4628,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>42</v>
@@ -4602,31 +4644,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4635,14 +4677,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4652,11 +4694,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>42</v>
@@ -4668,14 +4710,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4685,14 +4727,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4708,7 +4750,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4718,14 +4760,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4741,24 +4783,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4767,14 +4809,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4784,14 +4826,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4800,14 +4842,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4817,14 +4859,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4833,14 +4875,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4850,14 +4892,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4866,14 +4908,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4883,14 +4925,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4899,14 +4941,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4920,10 +4962,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>287</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4939,7 +4981,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4949,14 +4991,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4965,7 +5007,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4982,11 +5024,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>42</v>
@@ -4998,14 +5040,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5015,14 +5057,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5031,14 +5073,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5048,14 +5090,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5064,14 +5106,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5081,14 +5123,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>143</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5104,7 +5146,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5114,14 +5156,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5130,14 +5172,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5147,14 +5189,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5163,14 +5205,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5180,14 +5222,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5196,14 +5238,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5213,14 +5255,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5229,14 +5271,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5246,14 +5288,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5262,14 +5304,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5279,14 +5321,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5295,14 +5337,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5312,11 +5354,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>129</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5335,7 +5377,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5345,14 +5387,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>304</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5361,14 +5403,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5378,14 +5420,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5394,14 +5436,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5411,14 +5453,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5427,14 +5469,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5444,14 +5486,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5460,28 +5502,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>332</v>
+        <v>137</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5493,31 +5535,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5526,31 +5568,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>125</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5566,24 +5608,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>338</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5599,24 +5641,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>343</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5625,31 +5667,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5658,14 +5700,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5675,11 +5717,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>165</v>
+        <v>345</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5698,7 +5740,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5708,14 +5750,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>348</v>
+        <v>176</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5724,14 +5766,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>24</v>
+        <v>349</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5741,14 +5783,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>350</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5757,14 +5799,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5774,14 +5816,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5790,14 +5832,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5807,14 +5849,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>27</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5823,7 +5865,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5840,11 +5882,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>165</v>
+        <v>358</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5863,7 +5905,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5873,11 +5915,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5889,14 +5931,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5906,14 +5948,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>363</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5922,14 +5964,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5939,14 +5981,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5955,14 +5997,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5972,14 +6014,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5995,7 +6037,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>24</v>
+        <v>368</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6005,11 +6047,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>27</v>
@@ -6021,14 +6063,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6038,11 +6080,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6054,14 +6096,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6071,11 +6113,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6087,14 +6129,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6104,11 +6146,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6120,14 +6162,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>239</v>
+        <v>379</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6137,11 +6179,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6153,14 +6195,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6170,11 +6212,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6186,14 +6228,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6203,14 +6245,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6219,14 +6261,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6236,11 +6278,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>12</v>
@@ -6252,14 +6294,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6269,11 +6311,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>12</v>
@@ -6285,14 +6327,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6302,49 +6344,247 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
-      <c r="P144" s="13">
-        <v>9771.625</v>
-      </c>
-      <c r="Q144" s="13"/>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
-      <c t="s" r="A145" s="14">
-        <v>384</v>
-      </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c t="s" r="G145" s="15">
-        <v>385</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="16"/>
-      <c t="s" r="K145" s="17">
-        <v>386</v>
-      </c>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>387</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>250</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>20</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>388</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>389</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>390</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>391</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>20</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>392</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>370</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>393</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>76</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>20</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>345</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>394</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>250</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>20</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>130</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>395</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>396</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>20</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>358</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>397</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>379</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>20</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>373</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>374</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>10032.075000000001</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>398</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>399</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>400</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="697">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7038,10 +7278,40 @@
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="L143:M143"/>
     <mergeCell ref="N143:O143"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="K145:Q145"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>65.0000</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
   </si>
   <si>
     <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
@@ -3793,7 +3799,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3803,14 +3809,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3826,7 +3832,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3836,14 +3842,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3859,7 +3865,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3869,14 +3875,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3892,7 +3898,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3935,11 +3941,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3951,7 +3957,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3968,11 +3974,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3984,14 +3990,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4001,7 +4007,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -4024,7 +4030,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4034,11 +4040,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -4050,28 +4056,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -4083,7 +4089,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4096,18 +4102,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4123,7 +4129,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4149,14 +4155,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4166,14 +4172,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4189,7 +4195,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4199,14 +4205,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4222,7 +4228,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4232,11 +4238,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4255,7 +4261,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4269,10 +4275,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4281,14 +4287,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4298,11 +4304,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>42</v>
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4354,7 +4360,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4397,11 +4403,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>42</v>
@@ -4413,14 +4419,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4430,14 +4436,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4463,11 +4469,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4486,7 +4492,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4545,14 +4551,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4562,11 +4568,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4595,14 +4601,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4618,7 +4624,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4632,10 +4638,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4661,7 +4667,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4684,7 +4690,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4694,11 +4700,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>42</v>
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4727,11 +4733,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>42</v>
@@ -4743,14 +4749,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4760,11 +4766,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>42</v>
@@ -4783,13 +4789,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4797,10 +4803,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4809,31 +4815,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4859,14 +4865,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4882,7 +4888,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4892,14 +4898,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4915,7 +4921,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4925,14 +4931,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4958,14 +4964,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4991,14 +4997,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>76</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5014,7 +5020,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5024,14 +5030,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5040,14 +5046,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5057,14 +5063,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5073,14 +5079,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5090,11 +5096,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -5106,14 +5112,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5123,14 +5129,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5139,7 +5145,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5156,14 +5162,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5172,14 +5178,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5189,14 +5195,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5222,11 +5228,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>42</v>
@@ -5238,14 +5244,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5255,11 +5261,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>42</v>
@@ -5271,14 +5277,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5288,14 +5294,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5304,14 +5310,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5321,14 +5327,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5337,14 +5343,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5354,14 +5360,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5370,14 +5376,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5387,7 +5393,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5420,11 +5426,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5436,14 +5442,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5453,14 +5459,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5469,14 +5475,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5486,14 +5492,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5502,14 +5508,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5519,14 +5525,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5535,14 +5541,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5552,14 +5558,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>316</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5568,14 +5574,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5589,10 +5595,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>336</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>42</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5601,14 +5607,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5618,7 +5624,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5641,7 +5647,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5651,14 +5657,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5667,14 +5673,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5684,14 +5690,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5707,13 +5713,13 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5721,10 +5727,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>346</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5733,7 +5739,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5750,11 +5756,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5766,14 +5772,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5783,11 +5789,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5806,7 +5812,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5816,11 +5822,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>351</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5839,7 +5845,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>353</v>
+        <v>27</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5849,14 +5855,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>356</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5865,14 +5871,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5882,14 +5888,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>262</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5915,11 +5921,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5931,7 +5937,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5948,14 +5954,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5981,14 +5987,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>363</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -6014,14 +6020,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>250</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6030,14 +6036,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6047,14 +6053,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>27</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6063,14 +6069,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>24</v>
+        <v>370</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6080,14 +6086,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>177</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6096,14 +6102,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6113,11 +6119,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>373</v>
+        <v>176</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>374</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6129,14 +6135,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6146,11 +6152,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6162,14 +6168,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>379</v>
+        <v>27</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6179,11 +6185,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6202,7 +6208,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>27</v>
+        <v>381</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6212,11 +6218,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6228,14 +6234,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6245,14 +6251,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6261,14 +6267,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6278,14 +6284,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6294,14 +6300,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>368</v>
+        <v>12</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6311,11 +6317,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>12</v>
@@ -6327,14 +6333,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>24</v>
+        <v>370</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6344,11 +6350,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>385</v>
+        <v>259</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>12</v>
@@ -6360,14 +6366,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6377,11 +6383,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>12</v>
@@ -6393,14 +6399,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6410,11 +6416,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>12</v>
@@ -6426,14 +6432,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6443,11 +6449,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>12</v>
@@ -6459,14 +6465,14 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6476,11 +6482,11 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>12</v>
@@ -6492,14 +6498,14 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6509,11 +6515,11 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>358</v>
+        <v>130</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>12</v>
@@ -6532,7 +6538,7 @@
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
@@ -6542,49 +6548,82 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="150" ht="24.75" customHeight="1">
-      <c r="P150" s="13">
-        <v>10032.075000000001</v>
-      </c>
-      <c r="Q150" s="13"/>
-    </row>
-    <row r="151" ht="16.5" customHeight="1">
-      <c t="s" r="A151" s="14">
-        <v>398</v>
-      </c>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c t="s" r="G151" s="15">
+      <c r="A150" s="7">
+        <v>144</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c t="s" r="C150" s="8">
         <v>399</v>
       </c>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="16"/>
-      <c t="s" r="K151" s="17">
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c t="s" r="H150" s="9">
+        <v>381</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c t="s" r="L150" s="10">
+        <v>20</v>
+      </c>
+      <c r="M150" s="10"/>
+      <c t="s" r="N150" s="8">
+        <v>375</v>
+      </c>
+      <c r="O150" s="8"/>
+      <c t="s" r="P150" s="11">
+        <v>376</v>
+      </c>
+      <c t="s" r="Q150" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="P151" s="13">
+        <v>10058.805</v>
+      </c>
+      <c r="Q151" s="13"/>
+    </row>
+    <row r="152" ht="16.5" customHeight="1">
+      <c t="s" r="A152" s="14">
         <v>400</v>
       </c>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
-      <c r="Q151" s="17"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c t="s" r="G152" s="15">
+        <v>401</v>
+      </c>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c t="s" r="K152" s="17">
+        <v>402</v>
+      </c>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
+      <c r="O152" s="17"/>
+      <c r="P152" s="17"/>
+      <c r="Q152" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="727">
+  <mergeCells count="732">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7308,10 +7347,15 @@
     <mergeCell ref="H149:K149"/>
     <mergeCell ref="L149:M149"/>
     <mergeCell ref="N149:O149"/>
-    <mergeCell ref="P150:Q150"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="K151:Q151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="P151:Q151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="K152:Q152"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -1211,7 +1211,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:50 PM</t>
+    <t>Monday, 22 September, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>ALFACALCIDOL 2MCG/ML ORAL DPS. 10 ML</t>
   </si>
   <si>
@@ -257,6 +269,21 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -686,9 +713,6 @@
     <t>MEGALASE 30 TAB</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -707,7 +731,7 @@
     <t>390.00</t>
   </si>
   <si>
-    <t>195.0000</t>
+    <t>390.0000</t>
   </si>
   <si>
     <t>MYOFEN 30 CAPS</t>
@@ -788,16 +812,13 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
@@ -971,9 +992,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -1007,6 +1025,9 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -1043,6 +1064,15 @@
     <t>288.0000</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -1067,6 +1097,18 @@
     <t>30:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جل هيركود160مل </t>
   </si>
   <si>
@@ -1106,18 +1148,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -1136,12 +1172,6 @@
     <t>شامبو نونو100ملل</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
@@ -1211,7 +1241,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 10:53 PM</t>
+    <t>Monday, 22 September, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1885,7 +1915,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1895,11 +1925,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>12</v>
@@ -1911,7 +1941,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1924,7 +1954,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1951,13 +1981,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1968,7 +1998,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1977,20 +2007,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -2001,7 +2031,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -2010,20 +2040,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -2050,7 +2080,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2060,11 +2090,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -2076,14 +2106,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2100,7 +2130,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2109,14 +2139,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2133,7 +2163,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2142,14 +2172,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2166,7 +2196,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2199,7 +2229,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2208,14 +2238,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2232,7 +2262,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2241,28 +2271,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2274,31 +2304,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2307,14 +2337,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2331,7 +2361,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2347,7 +2377,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2357,14 +2387,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2373,14 +2403,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2390,14 +2420,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2406,14 +2436,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2423,14 +2453,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2439,14 +2469,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2463,7 +2493,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2479,7 +2509,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2489,11 +2519,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2505,14 +2535,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2522,11 +2552,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2538,14 +2568,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2559,10 +2589,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2571,14 +2601,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2588,14 +2618,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2611,7 +2641,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2621,14 +2651,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2644,7 +2674,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2654,14 +2684,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2677,7 +2707,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2687,14 +2717,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2720,14 +2750,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2743,7 +2773,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2760,7 +2790,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2776,7 +2806,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2793,7 +2823,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2809,7 +2839,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2819,7 +2849,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2842,13 +2872,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2859,7 +2889,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2875,7 +2905,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2892,7 +2922,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2908,7 +2938,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2925,7 +2955,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2934,31 +2964,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2967,14 +2997,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2984,14 +3014,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3000,14 +3030,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3017,14 +3047,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3033,14 +3063,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3050,14 +3080,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3066,14 +3096,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3083,14 +3113,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3099,14 +3129,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3116,14 +3146,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3132,14 +3162,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3156,7 +3186,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3172,7 +3202,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3182,11 +3212,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3198,14 +3228,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3215,14 +3245,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3231,14 +3261,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3248,14 +3278,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3264,7 +3294,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3281,11 +3311,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3297,14 +3327,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3314,14 +3344,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3330,14 +3360,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3347,14 +3377,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3363,14 +3393,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3380,14 +3410,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3396,14 +3426,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3413,14 +3443,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3436,7 +3466,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3469,7 +3499,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3486,7 +3516,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3502,7 +3532,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3512,14 +3542,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3528,14 +3558,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3545,11 +3575,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3561,14 +3591,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3578,14 +3608,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3594,14 +3624,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3618,7 +3648,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3634,7 +3664,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3651,7 +3681,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3667,7 +3697,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3684,7 +3714,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3700,13 +3730,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3733,7 +3763,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3743,14 +3773,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3759,14 +3789,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3776,11 +3806,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3792,31 +3822,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3825,14 +3855,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3842,11 +3872,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3858,14 +3888,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3875,14 +3905,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3891,14 +3921,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3908,14 +3938,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3924,14 +3954,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3941,11 +3971,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3957,14 +3987,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3974,14 +4004,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3990,14 +4020,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4007,14 +4037,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4030,7 +4060,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4040,11 +4070,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -4056,7 +4086,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4073,11 +4103,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -4089,28 +4119,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4122,14 +4152,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4139,14 +4169,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4155,14 +4185,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4172,14 +4202,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4188,31 +4218,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4221,14 +4251,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4238,14 +4268,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4254,14 +4284,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4271,14 +4301,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4287,14 +4317,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4304,14 +4334,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4320,14 +4350,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4337,14 +4367,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4360,7 +4390,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4370,11 +4400,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4393,7 +4423,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4410,7 +4440,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4426,7 +4456,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4436,14 +4466,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4459,7 +4489,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4469,11 +4499,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4485,14 +4515,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4502,14 +4532,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4535,14 +4565,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4551,14 +4581,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4591,7 +4621,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4605,7 +4635,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4617,14 +4647,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4634,14 +4664,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4650,14 +4680,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4674,7 +4704,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4690,7 +4720,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4700,14 +4730,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4716,14 +4746,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4733,14 +4763,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4749,14 +4779,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4766,14 +4796,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4782,14 +4812,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4799,14 +4829,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4815,31 +4845,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4848,14 +4878,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4865,14 +4895,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4881,14 +4911,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4898,14 +4928,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4914,28 +4944,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4947,14 +4977,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4964,14 +4994,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4980,14 +5010,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4997,14 +5027,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5013,14 +5043,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -5030,14 +5060,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5046,14 +5076,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5063,14 +5093,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5079,14 +5109,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5096,14 +5126,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5112,14 +5142,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5129,14 +5159,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5145,14 +5175,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5162,14 +5192,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5195,11 +5225,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5211,14 +5241,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5228,14 +5258,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5244,14 +5274,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5261,14 +5291,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5277,14 +5307,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5294,14 +5324,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5310,14 +5340,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5327,14 +5357,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5343,14 +5373,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5360,14 +5390,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5376,14 +5406,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5393,14 +5423,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5409,14 +5439,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5426,14 +5456,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5442,14 +5472,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5459,14 +5489,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5475,14 +5505,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5492,14 +5522,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5508,14 +5538,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5525,14 +5555,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5541,14 +5571,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5558,11 +5588,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5574,14 +5604,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5591,14 +5621,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>318</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5607,14 +5637,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5624,14 +5654,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5640,14 +5670,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5657,14 +5687,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>340</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5673,14 +5703,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5690,14 +5720,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>343</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5706,14 +5736,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5723,14 +5753,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>42</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5739,31 +5769,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5772,31 +5802,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>177</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5805,31 +5835,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5838,31 +5868,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
         <v>353</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5878,24 +5908,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>357</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>358</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5904,28 +5934,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5937,28 +5967,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5970,31 +6000,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>24</v>
+        <v>361</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -6003,31 +6033,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>15</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>365</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6043,24 +6073,24 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6069,31 +6099,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>371</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>372</v>
-      </c>
-      <c t="s" r="Q135" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6109,21 +6139,21 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6135,28 +6165,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6168,31 +6198,31 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>379</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6201,31 +6231,31 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>381</v>
+        <v>28</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>12</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6234,31 +6264,31 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>353</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>12</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6267,31 +6297,31 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6300,28 +6330,28 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>12</v>
@@ -6333,28 +6363,28 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>12</v>
@@ -6366,28 +6396,28 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>12</v>
@@ -6399,28 +6429,28 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>252</v>
+        <v>391</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>12</v>
@@ -6439,21 +6469,21 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>393</v>
+        <v>31</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c t="s" r="L146" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>12</v>
@@ -6465,31 +6495,31 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c t="s" r="L147" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>348</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q147" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
@@ -6498,28 +6528,28 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c t="s" r="L148" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>12</v>
@@ -6531,28 +6561,28 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c t="s" r="L149" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>12</v>
@@ -6564,66 +6594,264 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>381</v>
+        <v>28</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c t="s" r="L150" s="10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c t="s" r="Q150" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
-      <c r="P151" s="13">
-        <v>10058.805</v>
-      </c>
-      <c r="Q151" s="13"/>
-    </row>
-    <row r="152" ht="16.5" customHeight="1">
-      <c t="s" r="A152" s="14">
+      <c r="A151" s="7">
+        <v>145</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c t="s" r="C151" s="8">
+        <v>399</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c t="s" r="H151" s="9">
+        <v>260</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c t="s" r="L151" s="10">
+        <v>24</v>
+      </c>
+      <c r="M151" s="10"/>
+      <c t="s" r="N151" s="8">
         <v>400</v>
       </c>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c t="s" r="G152" s="15">
+      <c r="O151" s="8"/>
+      <c t="s" r="P151" s="11">
         <v>401</v>
       </c>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="16"/>
-      <c t="s" r="K152" s="17">
+      <c t="s" r="Q151" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" ht="25.5" customHeight="1">
+      <c r="A152" s="7">
+        <v>146</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c t="s" r="C152" s="8">
         <v>402</v>
       </c>
-      <c r="L152" s="17"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17"/>
-      <c r="O152" s="17"/>
-      <c r="P152" s="17"/>
-      <c r="Q152" s="17"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c t="s" r="H152" s="9">
+        <v>403</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c t="s" r="L152" s="10">
+        <v>24</v>
+      </c>
+      <c r="M152" s="10"/>
+      <c t="s" r="N152" s="8">
+        <v>404</v>
+      </c>
+      <c r="O152" s="8"/>
+      <c t="s" r="P152" s="11">
+        <v>384</v>
+      </c>
+      <c t="s" r="Q152" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" ht="24.75" customHeight="1">
+      <c r="A153" s="7">
+        <v>147</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c t="s" r="C153" s="8">
+        <v>405</v>
+      </c>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c t="s" r="H153" s="9">
+        <v>80</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c t="s" r="L153" s="10">
+        <v>24</v>
+      </c>
+      <c r="M153" s="10"/>
+      <c t="s" r="N153" s="8">
+        <v>357</v>
+      </c>
+      <c r="O153" s="8"/>
+      <c t="s" r="P153" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q153" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" ht="25.5" customHeight="1">
+      <c r="A154" s="7">
+        <v>148</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c t="s" r="C154" s="8">
+        <v>406</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c t="s" r="H154" s="9">
+        <v>260</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c t="s" r="L154" s="10">
+        <v>24</v>
+      </c>
+      <c r="M154" s="10"/>
+      <c t="s" r="N154" s="8">
+        <v>139</v>
+      </c>
+      <c r="O154" s="8"/>
+      <c t="s" r="P154" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q154" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" ht="24.75" customHeight="1">
+      <c r="A155" s="7">
+        <v>149</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c t="s" r="C155" s="8">
+        <v>407</v>
+      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c t="s" r="H155" s="9">
+        <v>408</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c t="s" r="L155" s="10">
+        <v>24</v>
+      </c>
+      <c r="M155" s="10"/>
+      <c t="s" r="N155" s="8">
+        <v>374</v>
+      </c>
+      <c r="O155" s="8"/>
+      <c t="s" r="P155" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q155" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" ht="25.5" customHeight="1">
+      <c r="A156" s="7">
+        <v>150</v>
+      </c>
+      <c r="B156" s="7"/>
+      <c t="s" r="C156" s="8">
+        <v>409</v>
+      </c>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c t="s" r="H156" s="9">
+        <v>391</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c t="s" r="L156" s="10">
+        <v>24</v>
+      </c>
+      <c r="M156" s="10"/>
+      <c t="s" r="N156" s="8">
+        <v>364</v>
+      </c>
+      <c r="O156" s="8"/>
+      <c t="s" r="P156" s="11">
+        <v>365</v>
+      </c>
+      <c t="s" r="Q156" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" ht="25.5" customHeight="1">
+      <c r="P157" s="13">
+        <v>10524.885</v>
+      </c>
+      <c r="Q157" s="13"/>
+    </row>
+    <row r="158" ht="16.5" customHeight="1">
+      <c t="s" r="A158" s="14">
+        <v>410</v>
+      </c>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c t="s" r="G158" s="15">
+        <v>411</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c t="s" r="K158" s="17">
+        <v>412</v>
+      </c>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="732">
+  <mergeCells count="762">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7352,10 +7580,40 @@
     <mergeCell ref="H150:K150"/>
     <mergeCell ref="L150:M150"/>
     <mergeCell ref="N150:O150"/>
-    <mergeCell ref="P151:Q151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="K152:Q152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="H151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="H152:K152"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="H153:K153"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="K158:Q158"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -302,6 +302,33 @@
     <t>33.00</t>
   </si>
   <si>
+    <t>CONVAGRAN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -575,9 +602,6 @@
     <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>44.5500</t>
   </si>
   <si>
@@ -707,18 +731,12 @@
     <t>57.00</t>
   </si>
   <si>
-    <t>114.0000</t>
-  </si>
-  <si>
     <t>MEGALASE 30 TAB</t>
   </si>
   <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
-    <t>135.0000</t>
-  </si>
-  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -1241,7 +1259,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 11:06 PM</t>
+    <t>Monday, 22 September, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2707,7 +2725,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2740,7 +2758,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2806,7 +2824,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2856,7 +2874,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2872,7 +2890,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2889,7 +2907,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2905,7 +2923,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2922,7 +2940,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2938,7 +2956,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2948,7 +2966,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2971,13 +2989,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2988,7 +3006,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -3004,7 +3022,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -3021,7 +3039,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3037,7 +3055,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3054,7 +3072,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3063,31 +3081,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3096,14 +3114,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3113,14 +3131,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3179,11 +3197,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>46</v>
@@ -3195,14 +3213,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3212,14 +3230,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3228,14 +3246,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3245,14 +3263,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3261,14 +3279,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3301,7 +3319,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3311,11 +3329,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3327,14 +3345,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>46</v>
@@ -3360,14 +3378,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3393,7 +3411,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3410,11 +3428,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3443,14 +3461,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3459,14 +3477,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3476,14 +3494,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3542,14 +3560,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3565,7 +3583,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3598,7 +3616,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3615,7 +3633,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3631,7 +3649,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3657,14 +3675,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3674,11 +3692,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3690,14 +3708,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3707,14 +3725,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3723,14 +3741,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3747,7 +3765,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3763,7 +3781,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3780,7 +3798,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3796,7 +3814,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3806,14 +3824,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3822,7 +3840,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3835,15 +3853,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3872,14 +3890,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3895,7 +3913,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3928,24 +3946,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3954,7 +3972,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3971,11 +3989,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3987,14 +4005,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -4004,14 +4022,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4053,7 +4071,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -4070,11 +4088,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -4086,14 +4104,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4126,7 +4144,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4152,7 +4170,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4169,7 +4187,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4202,11 +4220,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4218,28 +4236,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4251,7 +4269,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4268,14 +4286,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4301,14 +4319,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4317,31 +4335,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4456,7 +4474,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4466,14 +4484,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4499,11 +4517,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4515,14 +4533,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4532,14 +4550,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4548,14 +4566,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4565,11 +4583,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>46</v>
@@ -4581,14 +4599,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4598,11 +4616,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4614,14 +4632,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4631,14 +4649,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4647,14 +4665,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4664,11 +4682,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>46</v>
@@ -4680,14 +4698,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4697,11 +4715,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4713,14 +4731,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4730,11 +4748,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4746,14 +4764,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4763,14 +4781,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4779,14 +4797,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4796,14 +4814,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4812,14 +4830,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4829,14 +4847,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4852,7 +4870,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4862,14 +4880,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4885,7 +4903,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4902,7 +4920,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4928,11 +4946,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>46</v>
@@ -4951,24 +4969,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4977,14 +4995,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4994,11 +5012,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>46</v>
@@ -5010,14 +5028,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5027,14 +5045,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5043,28 +5061,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -5076,14 +5094,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5093,11 +5111,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>46</v>
@@ -5109,14 +5127,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>139</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5126,14 +5144,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>296</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5142,14 +5160,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5159,14 +5177,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5175,14 +5193,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5192,11 +5210,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>46</v>
@@ -5208,14 +5226,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5225,14 +5243,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5241,14 +5259,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5258,14 +5276,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5274,14 +5292,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5291,11 +5309,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>46</v>
@@ -5307,7 +5325,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5324,11 +5342,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5340,14 +5358,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5357,14 +5375,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5373,14 +5391,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5390,11 +5408,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>46</v>
@@ -5413,7 +5431,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5423,14 +5441,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5439,14 +5457,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5456,14 +5474,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5472,7 +5490,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5489,14 +5507,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5505,14 +5523,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5522,14 +5540,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5538,14 +5556,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5555,14 +5573,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5571,14 +5589,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5588,14 +5606,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5604,14 +5622,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5621,14 +5639,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5637,14 +5655,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5654,14 +5672,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5670,14 +5688,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5687,14 +5705,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5703,14 +5721,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5720,14 +5738,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>147</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5736,14 +5754,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5757,10 +5775,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>325</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5769,14 +5787,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5786,11 +5804,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>46</v>
@@ -5802,14 +5820,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5819,14 +5837,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>347</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5835,14 +5853,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5852,14 +5870,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>80</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5868,14 +5886,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5885,11 +5903,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>46</v>
@@ -5901,14 +5919,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5918,11 +5936,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>46</v>
@@ -5934,31 +5952,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5967,31 +5985,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -6007,24 +6025,24 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>139</v>
+        <v>361</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -6040,7 +6058,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -6050,11 +6068,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -6066,14 +6084,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6083,11 +6101,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>367</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -6099,14 +6117,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6116,14 +6134,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>371</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>372</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6132,14 +6150,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>28</v>
+        <v>369</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6149,11 +6167,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6165,14 +6183,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6182,11 +6200,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>186</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6198,14 +6216,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>28</v>
+        <v>375</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6215,14 +6233,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>225</v>
+        <v>377</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>95</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6231,7 +6249,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6248,14 +6266,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>363</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6264,7 +6282,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6281,14 +6299,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>260</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6297,14 +6315,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>382</v>
+        <v>28</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6318,10 +6336,10 @@
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>384</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6330,7 +6348,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6347,14 +6365,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>12</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6363,14 +6381,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6380,14 +6398,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>365</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>12</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6403,7 +6421,7 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>31</v>
+        <v>388</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6413,14 +6431,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6429,14 +6447,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>391</v>
+        <v>28</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6446,11 +6464,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>367</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>12</v>
@@ -6469,7 +6487,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6479,11 +6497,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>12</v>
@@ -6502,7 +6520,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6512,14 +6530,14 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>18</v>
+        <v>394</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c t="s" r="Q147" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" ht="24.75" customHeight="1">
@@ -6528,14 +6546,14 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>12</v>
+        <v>397</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6545,11 +6563,11 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>186</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>12</v>
@@ -6561,14 +6579,14 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>382</v>
+        <v>31</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
@@ -6578,11 +6596,11 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>12</v>
@@ -6594,7 +6612,7 @@
       </c>
       <c r="B150" s="7"/>
       <c t="s" r="C150" s="8">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -6611,14 +6629,14 @@
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>397</v>
+        <v>18</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>398</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q150" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
@@ -6627,14 +6645,14 @@
       </c>
       <c r="B151" s="7"/>
       <c t="s" r="C151" s="8">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c t="s" r="H151" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
@@ -6644,11 +6662,11 @@
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>400</v>
+        <v>194</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>401</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q151" s="12">
         <v>12</v>
@@ -6660,14 +6678,14 @@
       </c>
       <c r="B152" s="7"/>
       <c t="s" r="C152" s="8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
@@ -6677,11 +6695,11 @@
       </c>
       <c r="M152" s="10"/>
       <c t="s" r="N152" s="8">
-        <v>404</v>
+        <v>18</v>
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q152" s="12">
         <v>12</v>
@@ -6693,14 +6711,14 @@
       </c>
       <c r="B153" s="7"/>
       <c t="s" r="C153" s="8">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c t="s" r="H153" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
@@ -6710,11 +6728,11 @@
       </c>
       <c r="M153" s="10"/>
       <c t="s" r="N153" s="8">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153" s="11">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c t="s" r="Q153" s="12">
         <v>12</v>
@@ -6726,14 +6744,14 @@
       </c>
       <c r="B154" s="7"/>
       <c t="s" r="C154" s="8">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c t="s" r="H154" s="9">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
@@ -6743,11 +6761,11 @@
       </c>
       <c r="M154" s="10"/>
       <c t="s" r="N154" s="8">
-        <v>139</v>
+        <v>406</v>
       </c>
       <c r="O154" s="8"/>
       <c t="s" r="P154" s="11">
-        <v>140</v>
+        <v>407</v>
       </c>
       <c t="s" r="Q154" s="12">
         <v>12</v>
@@ -6759,14 +6777,14 @@
       </c>
       <c r="B155" s="7"/>
       <c t="s" r="C155" s="8">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c t="s" r="H155" s="9">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
@@ -6776,11 +6794,11 @@
       </c>
       <c r="M155" s="10"/>
       <c t="s" r="N155" s="8">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="O155" s="8"/>
       <c t="s" r="P155" s="11">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c t="s" r="Q155" s="12">
         <v>12</v>
@@ -6792,14 +6810,14 @@
       </c>
       <c r="B156" s="7"/>
       <c t="s" r="C156" s="8">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c t="s" r="H156" s="9">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
@@ -6809,49 +6827,148 @@
       </c>
       <c r="M156" s="10"/>
       <c t="s" r="N156" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O156" s="8"/>
       <c t="s" r="P156" s="11">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q156" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="157" ht="25.5" customHeight="1">
-      <c r="P157" s="13">
-        <v>10524.885</v>
-      </c>
-      <c r="Q157" s="13"/>
-    </row>
-    <row r="158" ht="16.5" customHeight="1">
-      <c t="s" r="A158" s="14">
-        <v>410</v>
-      </c>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c t="s" r="G158" s="15">
-        <v>411</v>
-      </c>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="16"/>
-      <c t="s" r="K158" s="17">
+      <c r="A157" s="7">
+        <v>151</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c t="s" r="C157" s="8">
         <v>412</v>
       </c>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="17"/>
-      <c r="Q158" s="17"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c t="s" r="H157" s="9">
+        <v>266</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c t="s" r="L157" s="10">
+        <v>24</v>
+      </c>
+      <c r="M157" s="10"/>
+      <c t="s" r="N157" s="8">
+        <v>148</v>
+      </c>
+      <c r="O157" s="8"/>
+      <c t="s" r="P157" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q157" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" ht="24.75" customHeight="1">
+      <c r="A158" s="7">
+        <v>152</v>
+      </c>
+      <c r="B158" s="7"/>
+      <c t="s" r="C158" s="8">
+        <v>413</v>
+      </c>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c t="s" r="H158" s="9">
+        <v>414</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c t="s" r="L158" s="10">
+        <v>24</v>
+      </c>
+      <c r="M158" s="10"/>
+      <c t="s" r="N158" s="8">
+        <v>380</v>
+      </c>
+      <c r="O158" s="8"/>
+      <c t="s" r="P158" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q158" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" ht="25.5" customHeight="1">
+      <c r="A159" s="7">
+        <v>153</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c t="s" r="C159" s="8">
+        <v>415</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c t="s" r="H159" s="9">
+        <v>397</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c t="s" r="L159" s="10">
+        <v>24</v>
+      </c>
+      <c r="M159" s="10"/>
+      <c t="s" r="N159" s="8">
+        <v>370</v>
+      </c>
+      <c r="O159" s="8"/>
+      <c t="s" r="P159" s="11">
+        <v>371</v>
+      </c>
+      <c t="s" r="Q159" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" ht="24.75" customHeight="1">
+      <c r="P160" s="13">
+        <v>10926.885</v>
+      </c>
+      <c r="Q160" s="13"/>
+    </row>
+    <row r="161" ht="16.5" customHeight="1">
+      <c t="s" r="A161" s="14">
+        <v>416</v>
+      </c>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c t="s" r="G161" s="15">
+        <v>417</v>
+      </c>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="16"/>
+      <c t="s" r="K161" s="17">
+        <v>418</v>
+      </c>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
+      <c r="O161" s="17"/>
+      <c r="P161" s="17"/>
+      <c r="Q161" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="762">
+  <mergeCells count="777">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7610,10 +7727,25 @@
     <mergeCell ref="H156:K156"/>
     <mergeCell ref="L156:M156"/>
     <mergeCell ref="N156:O156"/>
-    <mergeCell ref="P157:Q157"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="K158:Q158"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:G159"/>
+    <mergeCell ref="H159:K159"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="N159:O159"/>
+    <mergeCell ref="P160:Q160"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="K161:Q161"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -296,873 +305,867 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>CONVAGRAN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>83.8800</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>G.XIR (D310000IU) 30 TABLETS</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>INVESTA OIL REPLACEMENT 120 GM</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MAREVAN 1MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>23.2650</t>
+  </si>
+  <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>PERPDEL GEL</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>THYROXINE 50MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8221:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>بادي لوشن ايفا</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جل هيركود160مل </t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:13</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>36.8000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>حمام كريم فاتيكا الصغير</t>
+  </si>
+  <si>
+    <t>رول اون نيفيا</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>CONVAGRAN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>153.00</t>
-  </si>
-  <si>
-    <t>153.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 300MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>83.8800</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEXAWEST 60 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>136.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>52.4700</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FONDACLAV 1GM 12 F.C. TABS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>G.XIR (D310000IU) 30 TABLETS</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
-  </si>
-  <si>
-    <t>35:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>9.5000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>HEALSEC 20MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>INIZIO CREAM</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>INVESTA OIL REPLACEMENT 120 GM</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>MALCON MASSAGE CREAM</t>
-  </si>
-  <si>
-    <t>MAREVAN 1MG 102 TAB.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>MEGALASE 30 TAB</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MOVENTOR 20 TABS.</t>
-  </si>
-  <si>
-    <t>390.00</t>
-  </si>
-  <si>
-    <t>390.0000</t>
-  </si>
-  <si>
-    <t>MYOFEN 30 CAPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>OSTEO ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 1000 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>23.2650</t>
-  </si>
-  <si>
-    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>PERPDEL GEL</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>37.6000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:9</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>364.00</t>
-  </si>
-  <si>
-    <t>182.0000</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
-    <t>SELENIUM-ACE 30 TABS</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>SOFENACIN 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SULBIN 750MG VIAL</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>THYROXINE 50MCG 100 TAB.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8221:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>288.0000</t>
-  </si>
-  <si>
-    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>294.00</t>
-  </si>
-  <si>
-    <t>97.0200</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>بادي لوشن ايفا</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>بادي لوشن كير اند مور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جل هيركود160مل </t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>1:13</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>36.8000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>حمام كريم فاتيكا الصغير</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>رول اون نيفيا</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1208,9 +1211,15 @@
     <t>فرشه للشعر</t>
   </si>
   <si>
+    <t xml:space="preserve">قطن 250 جم </t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t xml:space="preserve">كحول ايثيلي 120 مل </t>
+  </si>
+  <si>
     <t>لزق بثور</t>
   </si>
   <si>
@@ -1259,7 +1268,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>Monday, 22 September, 2025 11:12 PM</t>
+    <t>Monday, 22 September, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,7 +2107,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2108,11 +2117,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2164,7 +2173,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2230,7 +2239,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2335,7 +2344,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2362,13 +2371,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2379,7 +2388,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2395,7 +2404,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2527,7 +2536,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2593,7 +2602,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2610,7 +2619,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2626,7 +2635,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2725,7 +2734,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2824,7 +2833,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2890,7 +2899,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2923,7 +2932,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2956,7 +2965,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2966,7 +2975,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2989,7 +2998,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -3022,7 +3031,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -3039,7 +3048,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3055,7 +3064,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -3072,7 +3081,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3088,13 +3097,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -3121,13 +3130,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -3154,7 +3163,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3171,7 +3180,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3237,7 +3246,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3253,7 +3262,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3270,7 +3279,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3336,7 +3345,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3418,7 +3427,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3484,7 +3493,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3550,7 +3559,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3593,7 +3602,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3616,7 +3625,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3633,7 +3642,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3649,7 +3658,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3666,7 +3675,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3699,7 +3708,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3715,7 +3724,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3748,7 +3757,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3798,7 +3807,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3814,7 +3823,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3880,7 +3889,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3897,7 +3906,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3913,7 +3922,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3930,7 +3939,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3952,7 +3961,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3985,15 +3994,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -4022,7 +4031,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -4045,7 +4054,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -4088,14 +4097,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4210,7 +4219,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4276,7 +4285,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4335,28 +4344,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4368,7 +4377,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4381,18 +4390,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4573,7 +4582,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4590,7 +4599,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4606,7 +4615,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4616,14 +4625,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4649,14 +4658,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4672,7 +4681,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4682,14 +4691,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4705,7 +4714,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4738,7 +4747,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4752,7 +4761,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4870,7 +4879,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4896,14 +4905,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4913,14 +4922,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4936,7 +4945,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -5068,13 +5077,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -5082,10 +5091,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5094,31 +5103,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5144,14 +5153,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5167,7 +5176,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5177,14 +5186,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5200,7 +5209,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5210,14 +5219,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>69</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5226,14 +5235,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5243,14 +5252,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5259,14 +5268,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5276,14 +5285,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>80</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5299,7 +5308,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5309,14 +5318,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5342,14 +5351,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5358,14 +5367,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5375,11 +5384,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5391,14 +5400,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5408,14 +5417,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5424,7 +5433,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5441,14 +5450,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5457,14 +5466,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5474,14 +5483,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5497,7 +5506,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5507,14 +5516,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5523,14 +5532,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5540,14 +5549,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5556,14 +5565,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5573,14 +5582,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>107</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5589,14 +5598,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5606,14 +5615,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5622,14 +5631,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>49</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5639,14 +5648,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5655,14 +5664,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5672,11 +5681,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5705,11 +5714,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5721,14 +5730,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5738,14 +5747,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5754,14 +5763,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5771,14 +5780,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5787,14 +5796,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5804,14 +5813,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>70</v>
+        <v>344</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5820,14 +5829,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5837,14 +5846,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5853,14 +5862,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5870,14 +5879,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>158</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5886,14 +5895,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5907,10 +5916,10 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>46</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5919,14 +5928,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5936,14 +5945,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>353</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5959,7 +5968,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5969,14 +5978,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>355</v>
+        <v>230</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5985,14 +5994,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -6002,14 +6011,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -6018,14 +6027,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -6035,14 +6044,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -6058,13 +6067,13 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
@@ -6072,10 +6081,10 @@
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>364</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6084,7 +6093,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -6101,11 +6110,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>195</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -6117,14 +6126,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6134,11 +6143,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -6167,11 +6176,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>370</v>
+        <v>151</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6183,14 +6192,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6200,11 +6209,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6216,14 +6225,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6233,14 +6242,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>378</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6249,14 +6258,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>28</v>
+        <v>376</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6266,14 +6275,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>12</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6282,7 +6291,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6299,11 +6308,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>12</v>
@@ -6315,7 +6324,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6332,14 +6341,14 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>383</v>
+        <v>197</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6348,7 +6357,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6365,14 +6374,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6398,14 +6407,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>266</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6414,14 +6423,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6431,14 +6440,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>31</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6447,14 +6456,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>28</v>
+        <v>389</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6464,14 +6473,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>194</v>
+        <v>390</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>195</v>
+        <v>391</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6487,7 +6496,7 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6497,11 +6506,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>370</v>
+        <v>197</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>371</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>12</v>
@@ -6520,7 +6529,7 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6530,11 +6539,11 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>12</v>
@@ -6546,14 +6555,14 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>397</v>
+        <v>31</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6563,11 +6572,11 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c t="s" r="Q148" s="12">
         <v>12</v>
@@ -6579,14 +6588,14 @@
       </c>
       <c r="B149" s="7"/>
       <c t="s" r="C149" s="8">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c t="s" r="H149" s="9">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
@@ -6596,11 +6605,11 @@
       </c>
       <c r="M149" s="10"/>
       <c t="s" r="N149" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O149" s="8"/>
       <c t="s" r="P149" s="11">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q149" s="12">
         <v>12</v>
@@ -6619,7 +6628,7 @@
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c t="s" r="H150" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
@@ -6629,14 +6638,14 @@
       </c>
       <c r="M150" s="10"/>
       <c t="s" r="N150" s="8">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="O150" s="8"/>
       <c t="s" r="P150" s="11">
-        <v>149</v>
+        <v>374</v>
       </c>
       <c t="s" r="Q150" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
@@ -6652,7 +6661,7 @@
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c t="s" r="H151" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
@@ -6662,11 +6671,11 @@
       </c>
       <c r="M151" s="10"/>
       <c t="s" r="N151" s="8">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="O151" s="8"/>
       <c t="s" r="P151" s="11">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q151" s="12">
         <v>12</v>
@@ -6685,7 +6694,7 @@
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c t="s" r="H152" s="9">
-        <v>388</v>
+        <v>28</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
@@ -6699,10 +6708,10 @@
       </c>
       <c r="O152" s="8"/>
       <c t="s" r="P152" s="11">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q152" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" ht="24.75" customHeight="1">
@@ -6718,7 +6727,7 @@
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c t="s" r="H153" s="9">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
@@ -6728,11 +6737,11 @@
       </c>
       <c r="M153" s="10"/>
       <c t="s" r="N153" s="8">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="O153" s="8"/>
       <c t="s" r="P153" s="11">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q153" s="12">
         <v>12</v>
@@ -6744,14 +6753,14 @@
       </c>
       <c r="B154" s="7"/>
       <c t="s" r="C154" s="8">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c t="s" r="H154" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
@@ -6761,11 +6770,11 @@
       </c>
       <c r="M154" s="10"/>
       <c t="s" r="N154" s="8">
-        <v>406</v>
+        <v>197</v>
       </c>
       <c r="O154" s="8"/>
       <c t="s" r="P154" s="11">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q154" s="12">
         <v>12</v>
@@ -6777,14 +6786,14 @@
       </c>
       <c r="B155" s="7"/>
       <c t="s" r="C155" s="8">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c t="s" r="H155" s="9">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
@@ -6794,11 +6803,11 @@
       </c>
       <c r="M155" s="10"/>
       <c t="s" r="N155" s="8">
-        <v>410</v>
+        <v>18</v>
       </c>
       <c r="O155" s="8"/>
       <c t="s" r="P155" s="11">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q155" s="12">
         <v>12</v>
@@ -6810,14 +6819,14 @@
       </c>
       <c r="B156" s="7"/>
       <c t="s" r="C156" s="8">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c t="s" r="H156" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
@@ -6827,11 +6836,11 @@
       </c>
       <c r="M156" s="10"/>
       <c t="s" r="N156" s="8">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="O156" s="8"/>
       <c t="s" r="P156" s="11">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c t="s" r="Q156" s="12">
         <v>12</v>
@@ -6843,14 +6852,14 @@
       </c>
       <c r="B157" s="7"/>
       <c t="s" r="C157" s="8">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c t="s" r="H157" s="9">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
@@ -6860,11 +6869,11 @@
       </c>
       <c r="M157" s="10"/>
       <c t="s" r="N157" s="8">
-        <v>148</v>
+        <v>409</v>
       </c>
       <c r="O157" s="8"/>
       <c t="s" r="P157" s="11">
-        <v>149</v>
+        <v>410</v>
       </c>
       <c t="s" r="Q157" s="12">
         <v>12</v>
@@ -6876,14 +6885,14 @@
       </c>
       <c r="B158" s="7"/>
       <c t="s" r="C158" s="8">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c t="s" r="H158" s="9">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
@@ -6893,11 +6902,11 @@
       </c>
       <c r="M158" s="10"/>
       <c t="s" r="N158" s="8">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="O158" s="8"/>
       <c t="s" r="P158" s="11">
-        <v>277</v>
+        <v>391</v>
       </c>
       <c t="s" r="Q158" s="12">
         <v>12</v>
@@ -6909,14 +6918,14 @@
       </c>
       <c r="B159" s="7"/>
       <c t="s" r="C159" s="8">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c t="s" r="H159" s="9">
-        <v>397</v>
+        <v>83</v>
       </c>
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
@@ -6926,49 +6935,148 @@
       </c>
       <c r="M159" s="10"/>
       <c t="s" r="N159" s="8">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O159" s="8"/>
       <c t="s" r="P159" s="11">
+        <v>366</v>
+      </c>
+      <c t="s" r="Q159" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" ht="24.75" customHeight="1">
+      <c r="A160" s="7">
+        <v>154</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c t="s" r="C160" s="8">
+        <v>415</v>
+      </c>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c t="s" r="H160" s="9">
+        <v>269</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c t="s" r="L160" s="10">
+        <v>24</v>
+      </c>
+      <c r="M160" s="10"/>
+      <c t="s" r="N160" s="8">
+        <v>151</v>
+      </c>
+      <c r="O160" s="8"/>
+      <c t="s" r="P160" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q160" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" ht="25.5" customHeight="1">
+      <c r="A161" s="7">
+        <v>155</v>
+      </c>
+      <c r="B161" s="7"/>
+      <c t="s" r="C161" s="8">
+        <v>416</v>
+      </c>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c t="s" r="H161" s="9">
+        <v>417</v>
+      </c>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c t="s" r="L161" s="10">
+        <v>24</v>
+      </c>
+      <c r="M161" s="10"/>
+      <c t="s" r="N161" s="8">
+        <v>36</v>
+      </c>
+      <c r="O161" s="8"/>
+      <c t="s" r="P161" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q161" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" ht="25.5" customHeight="1">
+      <c r="A162" s="7">
+        <v>156</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c t="s" r="C162" s="8">
+        <v>418</v>
+      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c t="s" r="H162" s="9">
+        <v>398</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c t="s" r="L162" s="10">
+        <v>24</v>
+      </c>
+      <c r="M162" s="10"/>
+      <c t="s" r="N162" s="8">
         <v>371</v>
       </c>
-      <c t="s" r="Q159" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" ht="24.75" customHeight="1">
-      <c r="P160" s="13">
-        <v>10926.885</v>
-      </c>
-      <c r="Q160" s="13"/>
-    </row>
-    <row r="161" ht="16.5" customHeight="1">
-      <c t="s" r="A161" s="14">
-        <v>416</v>
-      </c>
-      <c r="B161" s="14"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c t="s" r="G161" s="15">
-        <v>417</v>
-      </c>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="16"/>
-      <c t="s" r="K161" s="17">
-        <v>418</v>
-      </c>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="17"/>
-      <c r="P161" s="17"/>
-      <c r="Q161" s="17"/>
+      <c r="O162" s="8"/>
+      <c t="s" r="P162" s="11">
+        <v>372</v>
+      </c>
+      <c t="s" r="Q162" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" ht="24.75" customHeight="1">
+      <c r="P163" s="13">
+        <v>11041.885</v>
+      </c>
+      <c r="Q163" s="13"/>
+    </row>
+    <row r="164" ht="16.5" customHeight="1">
+      <c t="s" r="A164" s="14">
+        <v>419</v>
+      </c>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c t="s" r="G164" s="15">
+        <v>420</v>
+      </c>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c t="s" r="K164" s="17">
+        <v>421</v>
+      </c>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="17"/>
+      <c r="O164" s="17"/>
+      <c r="P164" s="17"/>
+      <c r="Q164" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="777">
+  <mergeCells count="792">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7742,10 +7850,25 @@
     <mergeCell ref="H159:K159"/>
     <mergeCell ref="L159:M159"/>
     <mergeCell ref="N159:O159"/>
-    <mergeCell ref="P160:Q160"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="K161:Q161"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="H160:K160"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:G161"/>
+    <mergeCell ref="H161:K161"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="H162:K162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="P163:Q163"/>
+    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="K164:Q164"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-22_00-00.xlsx
+++ b/DaySale_2025-09-22_00-00.xlsx
@@ -305,825 +305,828 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>CONVAGRAN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>83.8800</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEXAWEST 60 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>52.4700</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FONDACLAV 1GM 12 F.C. TABS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>G.XIR (D310000IU) 30 TABLETS</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>9.5000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>INVESTA OIL REPLACEMENT 120 GM</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 10/160MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>KOKAST 4MG 7 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL SUPRA 160MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LUBRIVISC 0.1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>MALCON MASSAGE CREAM</t>
+  </si>
+  <si>
+    <t>MAREVAN 1MG 102 TAB.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>MEGALASE 30 TAB</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOVENTOR 20 TABS.</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>390.0000</t>
+  </si>
+  <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>PAROXETINE CR 12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>23.2650</t>
+  </si>
+  <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>PERPDEL GEL</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SEBACLAR PURIFYING CLEANSING GEL 200 ML</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>SELENIUM-ACE 30 TABS</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>SLEEPEZ 3MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>THYROXINE 50MCG 100 TAB.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TICANASE PLUS 125/50 MCG NASAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8221:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>XANTHIBUX 40 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>288.0000</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>294.00</t>
+  </si>
+  <si>
+    <t>97.0200</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>بادي لوشن ايفا</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>CONVAGRAN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>153.00</t>
-  </si>
-  <si>
-    <t>153.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 300MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>83.8800</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
- 